--- a/Current_vs_Fluo.xlsx
+++ b/Current_vs_Fluo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Peter\Backup Papers\EAAT2 variants\data repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Peter\Backup Papers\EAAT2 variants\data repository\Formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4EA5CD-926E-4954-9B76-A05D866B16A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76C2A6-2EEB-4F60-92D1-298EA08D28F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{13D9237C-A966-49DE-81D4-41ADF551C653}"/>
+    <workbookView xWindow="28020" yWindow="120" windowWidth="20235" windowHeight="14940" activeTab="2" xr2:uid="{13D9237C-A966-49DE-81D4-41ADF551C653}"/>
   </bookViews>
   <sheets>
     <sheet name="G82R" sheetId="3" r:id="rId1"/>
@@ -27,18 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>Voltage</t>
   </si>
   <si>
     <t>no Glu</t>
-  </si>
-  <si>
-    <t>Capacitance</t>
-  </si>
-  <si>
-    <t>Mittelwert</t>
   </si>
   <si>
     <t>n</t>
@@ -179,28 +173,36 @@
     <t>(mV)</t>
   </si>
   <si>
+    <t>(pA)</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
     <r>
       <t>I</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <i/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ss</t>
+      <t>SS</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -215,21 +217,22 @@
     <r>
       <rPr>
         <b/>
+        <i/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SS</t>
+      <t>ss</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -285,14 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
@@ -310,8 +305,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,30 +335,27 @@
       <i/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -367,11 +378,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -415,9 +543,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,13 +561,139 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,7 +805,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>L85P!$B$43:$B$58</c:f>
+              <c:f>L85P!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -563,7 +814,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>L85P!$C$43:$C$58</c:f>
+              <c:f>L85P!$C$44:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -619,7 +870,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>L85P!$B$43:$B$58</c:f>
+              <c:f>L85P!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -628,7 +879,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>L85P!$D$43:$D$58</c:f>
+              <c:f>L85P!$D$44:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -684,7 +935,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>L85P!$B$43:$B$58</c:f>
+              <c:f>L85P!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -693,7 +944,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>L85P!$E$43:$E$58</c:f>
+              <c:f>L85P!$E$44:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -749,7 +1000,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>L85P!$B$43:$B$58</c:f>
+              <c:f>L85P!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -758,7 +1009,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>L85P!$F$43:$F$58</c:f>
+              <c:f>L85P!$F$44:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -814,7 +1065,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>L85P!$B$43:$B$58</c:f>
+              <c:f>L85P!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -823,7 +1074,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>L85P!$G$43:$G$58</c:f>
+              <c:f>L85P!$G$44:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -864,7 +1115,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>L85P!$B$43:$B$58</c:f>
+              <c:f>L85P!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -873,7 +1124,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>L85P!$H$43:$H$58</c:f>
+              <c:f>L85P!$H$44:$H$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -918,7 +1169,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>L85P!$B$43:$B$58</c:f>
+              <c:f>L85P!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -927,7 +1178,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>L85P!$I$43:$I$58</c:f>
+              <c:f>L85P!$I$44:$I$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -972,7 +1223,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>L85P!$B$43:$B$58</c:f>
+              <c:f>L85P!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -981,7 +1232,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>L85P!$J$43:$J$58</c:f>
+              <c:f>L85P!$J$44:$J$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1026,7 +1277,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>L85P!$B$43:$B$58</c:f>
+              <c:f>L85P!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1035,7 +1286,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>L85P!$K$43:$K$58</c:f>
+              <c:f>L85P!$K$44:$K$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1080,7 +1331,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>L85P!$B$43:$B$58</c:f>
+              <c:f>L85P!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1089,7 +1340,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>L85P!$L$43:$L$58</c:f>
+              <c:f>L85P!$L$44:$L$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1134,7 +1385,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>L85P!$B$43:$B$58</c:f>
+              <c:f>L85P!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1143,7 +1394,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>L85P!$M$43:$M$58</c:f>
+              <c:f>L85P!$M$44:$M$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1188,7 +1439,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>L85P!$B$43:$B$58</c:f>
+              <c:f>L85P!$B$44:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1197,7 +1448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>L85P!$N$43:$N$58</c:f>
+              <c:f>L85P!$N$44:$N$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4003,13 +4254,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4412,10 +4663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E627938B-59E9-4D8A-B5DC-7F96A9654D2A}">
-  <dimension ref="A1:AC57"/>
+  <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5:W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,1234 +4700,1271 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="24">
         <v>951115</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="24">
         <v>1006790</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="24">
         <v>2256082</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="24">
         <v>420295</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="24">
         <v>641419</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="24">
         <v>1526986</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="24">
         <v>1078604</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="24">
         <v>590374</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="24">
         <v>1189386</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="24">
         <v>746705</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="24">
         <v>396410</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="24">
         <v>2447200</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="24">
         <v>2447200</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="D4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W4" s="28" t="s">
         <v>4</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-150</v>
-      </c>
-      <c r="C4" s="8">
-        <v>-1.0604E-9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-3.3241999999999997E-10</v>
-      </c>
-      <c r="E4" s="8">
-        <v>-1.6027000000000001E-9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-3.8327000000000001E-10</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-5.1458999999999998E-10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-1.5448000000000001E-9</v>
-      </c>
-      <c r="I4" s="8">
-        <v>-1.7042E-9</v>
-      </c>
-      <c r="J4" s="8">
-        <v>-3.0370999999999998E-10</v>
-      </c>
-      <c r="K4" s="8">
-        <v>-1.6714E-9</v>
-      </c>
-      <c r="L4" s="8">
-        <v>-5.3747000000000001E-10</v>
-      </c>
-      <c r="M4" s="8">
-        <v>-4.4685000000000001E-10</v>
-      </c>
-      <c r="N4" s="1">
-        <v>-2.2848999999999998E-9</v>
-      </c>
-      <c r="O4" s="1">
-        <v>-2.2848999999999998E-9</v>
-      </c>
-      <c r="T4" s="1">
-        <f>AVERAGE(C4:R4)</f>
-        <v>-1.1285853846153847E-9</v>
-      </c>
-      <c r="U4" s="1">
-        <f>COUNT(C4:R4)</f>
-        <v>13</v>
-      </c>
-      <c r="V4" s="1">
-        <f>(STDEV(C4:R4))/SQRT(U4)</f>
-        <v>2.08224176533602E-10</v>
-      </c>
-      <c r="W4" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C4:R4)),U4)</f>
-        <v>4.0811188671637012E-10</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1">
-        <f>B4+15</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="25">
+        <v>-150</v>
+      </c>
+      <c r="C5" s="44">
+        <v>-1.0604E-9</v>
+      </c>
+      <c r="D5" s="45">
+        <v>-3.3241999999999997E-10</v>
+      </c>
+      <c r="E5" s="46">
+        <v>-1.6027000000000001E-9</v>
+      </c>
+      <c r="F5" s="47">
+        <v>-3.8327000000000001E-10</v>
+      </c>
+      <c r="G5" s="34">
+        <v>-5.1458999999999998E-10</v>
+      </c>
+      <c r="H5" s="47">
+        <v>-1.5448000000000001E-9</v>
+      </c>
+      <c r="I5" s="46">
+        <v>-1.7042E-9</v>
+      </c>
+      <c r="J5" s="46">
+        <v>-3.0370999999999998E-10</v>
+      </c>
+      <c r="K5" s="46">
+        <v>-1.6714E-9</v>
+      </c>
+      <c r="L5" s="46">
+        <v>-5.3747000000000001E-10</v>
+      </c>
+      <c r="M5" s="46">
+        <v>-4.4685000000000001E-10</v>
+      </c>
+      <c r="N5" s="47">
+        <v>-2.2848999999999998E-9</v>
+      </c>
+      <c r="O5" s="48">
+        <v>-2.2848999999999998E-9</v>
+      </c>
+      <c r="T5" s="59">
+        <f t="shared" ref="T5:T22" si="0">AVERAGE(C5:R5)</f>
+        <v>-1.1285853846153847E-9</v>
+      </c>
+      <c r="U5" s="47">
+        <f t="shared" ref="U5:U22" si="1">COUNT(C5:R5)</f>
+        <v>13</v>
+      </c>
+      <c r="V5" s="47">
+        <f t="shared" ref="V5:V22" si="2">(STDEV(C5:R5))/SQRT(U5)</f>
+        <v>2.08224176533602E-10</v>
+      </c>
+      <c r="W5" s="48">
+        <f t="shared" ref="W5:W22" si="3">CONFIDENCE(0.05,(STDEV(C5:R5)),U5)</f>
+        <v>4.0811188671637012E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="26">
+        <f>B5+15</f>
         <v>-135</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C6" s="49">
         <v>-9.0211E-10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="50">
         <v>-2.7989999999999998E-10</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="51">
         <v>-1.3567999999999999E-9</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="52">
         <v>-3.5269E-10</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G6" s="38">
         <v>-4.3861E-10</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="52">
         <v>-1.2543999999999999E-9</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I6" s="52">
         <v>-1.3856000000000001E-9</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6" s="52">
         <v>-2.7950000000000002E-10</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K6" s="52">
         <v>-1.4105E-9</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L6" s="52">
         <v>-4.618E-10</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M6" s="52">
         <v>-3.4801000000000002E-10</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N6" s="52">
         <v>-1.9817999999999999E-9</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O6" s="53">
         <v>-1.9817999999999999E-9</v>
       </c>
-      <c r="T5" s="1">
-        <f>AVERAGE(C5:R5)</f>
+      <c r="T6" s="60">
+        <f t="shared" si="0"/>
         <v>-9.5642461538461528E-10</v>
       </c>
-      <c r="U5" s="1">
-        <f>COUNT(C5:R5)</f>
+      <c r="U6" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V5" s="1">
-        <f>(STDEV(C5:R5))/SQRT(U5)</f>
+      <c r="V6" s="52">
+        <f t="shared" si="2"/>
         <v>1.773842523747036E-10</v>
       </c>
-      <c r="W5" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C5:R5)),U5)</f>
+      <c r="W6" s="53">
+        <f t="shared" si="3"/>
         <v>3.4766674607898253E-10</v>
       </c>
-      <c r="AC5" s="8"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <f t="shared" ref="B6:B19" si="0">B5+15</f>
+      <c r="AC6" s="8"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="26">
+        <f t="shared" ref="B7:B20" si="4">B6+15</f>
         <v>-120</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="49">
         <v>-7.8127000000000003E-10</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="50">
         <v>-2.5089999999999998E-10</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="51">
         <v>-1.1699000000000001E-9</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="52">
         <v>-3.2271000000000002E-10</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="38">
         <v>-3.5454E-10</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H7" s="52">
         <v>-1.0378000000000001E-9</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I7" s="52">
         <v>-1.1177E-9</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J7" s="52">
         <v>-2.4561999999999997E-10</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K7" s="52">
         <v>-1.1852E-9</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L7" s="52">
         <v>-3.8081E-10</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M7" s="52">
         <v>-2.7000999999999998E-10</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N7" s="52">
         <v>-1.6965000000000001E-9</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O7" s="53">
         <v>-1.6965000000000001E-9</v>
       </c>
-      <c r="T6" s="1">
-        <f>AVERAGE(C6:R6)</f>
+      <c r="T7" s="60">
+        <f t="shared" si="0"/>
         <v>-8.0841999999999999E-10</v>
       </c>
-      <c r="U6" s="1">
-        <f>COUNT(C6:R6)</f>
+      <c r="U7" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V6" s="1">
-        <f>(STDEV(C6:R6))/SQRT(U6)</f>
+      <c r="V7" s="52">
+        <f t="shared" si="2"/>
         <v>1.5066601810899671E-10</v>
       </c>
-      <c r="W6" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C6:R6)),U6)</f>
+      <c r="W7" s="53">
+        <f t="shared" si="3"/>
         <v>2.9529996918769305E-10</v>
       </c>
-      <c r="AC6" s="8"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="AC7" s="8"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="26">
+        <f t="shared" si="4"/>
+        <v>-105</v>
+      </c>
+      <c r="C8" s="49">
+        <v>-6.7532E-10</v>
+      </c>
+      <c r="D8" s="50">
+        <v>-2.11E-10</v>
+      </c>
+      <c r="E8" s="51">
+        <v>-9.7148000000000004E-10</v>
+      </c>
+      <c r="F8" s="52">
+        <v>-2.8368999999999998E-10</v>
+      </c>
+      <c r="G8" s="38">
+        <v>-2.8173000000000002E-10</v>
+      </c>
+      <c r="H8" s="52">
+        <v>-8.5449000000000001E-10</v>
+      </c>
+      <c r="I8" s="52">
+        <v>-8.8659000000000004E-10</v>
+      </c>
+      <c r="J8" s="52">
+        <v>-2.2125000000000001E-10</v>
+      </c>
+      <c r="K8" s="52">
+        <v>-9.7273000000000001E-10</v>
+      </c>
+      <c r="L8" s="52">
+        <v>-3.2929999999999999E-10</v>
+      </c>
+      <c r="M8" s="52">
+        <v>-2.1665E-10</v>
+      </c>
+      <c r="N8" s="52">
+        <v>-1.4396000000000001E-9</v>
+      </c>
+      <c r="O8" s="53">
+        <v>-1.4396000000000001E-9</v>
+      </c>
+      <c r="T8" s="60">
         <f t="shared" si="0"/>
-        <v>-105</v>
-      </c>
-      <c r="C7" s="8">
-        <v>-6.7532E-10</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-2.11E-10</v>
-      </c>
-      <c r="E7" s="8">
-        <v>-9.7148000000000004E-10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-2.8368999999999998E-10</v>
-      </c>
-      <c r="G7" s="4">
-        <v>-2.8173000000000002E-10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-8.5449000000000001E-10</v>
-      </c>
-      <c r="I7" s="1">
-        <v>-8.8659000000000004E-10</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-2.2125000000000001E-10</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-9.7273000000000001E-10</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-3.2929999999999999E-10</v>
-      </c>
-      <c r="M7" s="1">
-        <v>-2.1665E-10</v>
-      </c>
-      <c r="N7" s="1">
-        <v>-1.4396000000000001E-9</v>
-      </c>
-      <c r="O7" s="1">
-        <v>-1.4396000000000001E-9</v>
-      </c>
-      <c r="T7" s="1">
-        <f>AVERAGE(C7:R7)</f>
         <v>-6.7564846153846154E-10</v>
       </c>
-      <c r="U7" s="1">
-        <f>COUNT(C7:R7)</f>
+      <c r="U8" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V7" s="1">
-        <f>(STDEV(C7:R7))/SQRT(U7)</f>
+      <c r="V8" s="52">
+        <f t="shared" si="2"/>
         <v>1.2611844685446397E-10</v>
       </c>
-      <c r="W7" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C7:R7)),U7)</f>
+      <c r="W8" s="53">
+        <f t="shared" si="3"/>
         <v>2.4718761362087819E-10</v>
       </c>
-      <c r="AC7" s="8"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="AC8" s="8"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B9" s="26">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="C9" s="49">
+        <v>-5.5439999999999997E-10</v>
+      </c>
+      <c r="D9" s="50">
+        <v>-2.0121E-10</v>
+      </c>
+      <c r="E9" s="51">
+        <v>-8.3072999999999998E-10</v>
+      </c>
+      <c r="F9" s="52">
+        <v>-2.4898999999999998E-10</v>
+      </c>
+      <c r="G9" s="38">
+        <v>-2.2262E-10</v>
+      </c>
+      <c r="H9" s="52">
+        <v>-6.6668000000000002E-10</v>
+      </c>
+      <c r="I9" s="52">
+        <v>-6.9986E-10</v>
+      </c>
+      <c r="J9" s="52">
+        <v>-1.9387E-10</v>
+      </c>
+      <c r="K9" s="52">
+        <v>-7.8264E-10</v>
+      </c>
+      <c r="L9" s="52">
+        <v>-2.6811000000000002E-10</v>
+      </c>
+      <c r="M9" s="52">
+        <v>-1.736E-10</v>
+      </c>
+      <c r="N9" s="52">
+        <v>-1.2017999999999999E-9</v>
+      </c>
+      <c r="O9" s="53">
+        <v>-1.2017999999999999E-9</v>
+      </c>
+      <c r="T9" s="60">
         <f t="shared" si="0"/>
-        <v>-90</v>
-      </c>
-      <c r="C8" s="8">
-        <v>-5.5439999999999997E-10</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-2.0121E-10</v>
-      </c>
-      <c r="E8" s="8">
-        <v>-8.3072999999999998E-10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-2.4898999999999998E-10</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-2.2262E-10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>-6.6668000000000002E-10</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-6.9986E-10</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-1.9387E-10</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-7.8264E-10</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-2.6811000000000002E-10</v>
-      </c>
-      <c r="M8" s="1">
-        <v>-1.736E-10</v>
-      </c>
-      <c r="N8" s="1">
-        <v>-1.2017999999999999E-9</v>
-      </c>
-      <c r="O8" s="1">
-        <v>-1.2017999999999999E-9</v>
-      </c>
-      <c r="T8" s="1">
-        <f>AVERAGE(C8:R8)</f>
         <v>-5.5740846153846154E-10</v>
       </c>
-      <c r="U8" s="1">
-        <f>COUNT(C8:R8)</f>
+      <c r="U9" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V8" s="1">
-        <f>(STDEV(C8:R8))/SQRT(U8)</f>
+      <c r="V9" s="52">
+        <f t="shared" si="2"/>
         <v>1.0394161123417612E-10</v>
       </c>
-      <c r="W8" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C8:R8)),U8)</f>
+      <c r="W9" s="53">
+        <f t="shared" si="3"/>
         <v>2.0372181451404904E-10</v>
       </c>
-      <c r="AC8" s="8"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="AC9" s="8"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+      <c r="C10" s="49">
+        <v>-4.6706000000000004E-10</v>
+      </c>
+      <c r="D10" s="50">
+        <v>-1.7185000000000001E-10</v>
+      </c>
+      <c r="E10" s="51">
+        <v>-6.6813000000000005E-10</v>
+      </c>
+      <c r="F10" s="52">
+        <v>-2.1154E-10</v>
+      </c>
+      <c r="G10" s="38">
+        <v>-1.7643999999999999E-10</v>
+      </c>
+      <c r="H10" s="52">
+        <v>-5.4805999999999997E-10</v>
+      </c>
+      <c r="I10" s="52">
+        <v>-5.4784000000000004E-10</v>
+      </c>
+      <c r="J10" s="52">
+        <v>-1.6972999999999999E-10</v>
+      </c>
+      <c r="K10" s="52">
+        <v>-6.2266E-10</v>
+      </c>
+      <c r="L10" s="52">
+        <v>-2.1124000000000001E-10</v>
+      </c>
+      <c r="M10" s="52">
+        <v>-1.3922000000000001E-10</v>
+      </c>
+      <c r="N10" s="52">
+        <v>-9.7756999999999996E-10</v>
+      </c>
+      <c r="O10" s="53">
+        <v>-9.7756999999999996E-10</v>
+      </c>
+      <c r="T10" s="60">
         <f t="shared" si="0"/>
-        <v>-75</v>
-      </c>
-      <c r="C9" s="8">
-        <v>-4.6706000000000004E-10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-1.7185000000000001E-10</v>
-      </c>
-      <c r="E9" s="8">
-        <v>-6.6813000000000005E-10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-2.1154E-10</v>
-      </c>
-      <c r="G9" s="4">
-        <v>-1.7643999999999999E-10</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-5.4805999999999997E-10</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-5.4784000000000004E-10</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-1.6972999999999999E-10</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-6.2266E-10</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-2.1124000000000001E-10</v>
-      </c>
-      <c r="M9" s="1">
-        <v>-1.3922000000000001E-10</v>
-      </c>
-      <c r="N9" s="1">
-        <v>-9.7756999999999996E-10</v>
-      </c>
-      <c r="O9" s="1">
-        <v>-9.7756999999999996E-10</v>
-      </c>
-      <c r="T9" s="1">
-        <f>AVERAGE(C9:R9)</f>
         <v>-4.5299307692307695E-10</v>
       </c>
-      <c r="U9" s="1">
-        <f>COUNT(C9:R9)</f>
+      <c r="U10" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V9" s="1">
-        <f>(STDEV(C9:R9))/SQRT(U9)</f>
+      <c r="V10" s="52">
+        <f t="shared" si="2"/>
         <v>8.3766421316877842E-11</v>
       </c>
-      <c r="W9" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C9:R9)),U9)</f>
+      <c r="W10" s="53">
+        <f t="shared" si="3"/>
         <v>1.6417916889488879E-10</v>
       </c>
-      <c r="AC9" s="8"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="AC10" s="8"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="26">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="C11" s="49">
+        <v>-3.6305999999999998E-10</v>
+      </c>
+      <c r="D11" s="50">
+        <v>-1.3489000000000001E-10</v>
+      </c>
+      <c r="E11" s="51">
+        <v>-5.0461999999999996E-10</v>
+      </c>
+      <c r="F11" s="52">
+        <v>-1.7197E-10</v>
+      </c>
+      <c r="G11" s="38">
+        <v>-1.3636000000000001E-10</v>
+      </c>
+      <c r="H11" s="52">
+        <v>-4.1206000000000002E-10</v>
+      </c>
+      <c r="I11" s="52">
+        <v>-4.1612999999999999E-10</v>
+      </c>
+      <c r="J11" s="52">
+        <v>-1.3693999999999999E-10</v>
+      </c>
+      <c r="K11" s="52">
+        <v>-4.8240000000000001E-10</v>
+      </c>
+      <c r="L11" s="52">
+        <v>-1.4468999999999999E-10</v>
+      </c>
+      <c r="M11" s="52">
+        <v>-1.0327E-10</v>
+      </c>
+      <c r="N11" s="52">
+        <v>-7.6738999999999997E-10</v>
+      </c>
+      <c r="O11" s="53">
+        <v>-7.6738999999999997E-10</v>
+      </c>
+      <c r="T11" s="60">
         <f t="shared" si="0"/>
-        <v>-60</v>
-      </c>
-      <c r="C10" s="8">
-        <v>-3.6305999999999998E-10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-1.3489000000000001E-10</v>
-      </c>
-      <c r="E10" s="8">
-        <v>-5.0461999999999996E-10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-1.7197E-10</v>
-      </c>
-      <c r="G10" s="4">
-        <v>-1.3636000000000001E-10</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-4.1206000000000002E-10</v>
-      </c>
-      <c r="I10" s="1">
-        <v>-4.1612999999999999E-10</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-1.3693999999999999E-10</v>
-      </c>
-      <c r="K10" s="1">
-        <v>-4.8240000000000001E-10</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-1.4468999999999999E-10</v>
-      </c>
-      <c r="M10" s="1">
-        <v>-1.0327E-10</v>
-      </c>
-      <c r="N10" s="1">
-        <v>-7.6738999999999997E-10</v>
-      </c>
-      <c r="O10" s="1">
-        <v>-7.6738999999999997E-10</v>
-      </c>
-      <c r="T10" s="1">
-        <f>AVERAGE(C10:R10)</f>
         <v>-3.4932076923076919E-10</v>
       </c>
-      <c r="U10" s="1">
-        <f>COUNT(C10:R10)</f>
+      <c r="U11" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V10" s="1">
-        <f>(STDEV(C10:R10))/SQRT(U10)</f>
+      <c r="V11" s="52">
+        <f t="shared" si="2"/>
         <v>6.5549287107758128E-11</v>
       </c>
-      <c r="W10" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C10:R10)),U10)</f>
+      <c r="W11" s="53">
+        <f t="shared" si="3"/>
         <v>1.284742419434816E-10</v>
       </c>
-      <c r="AC10" s="8"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+      <c r="AC11" s="8"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="26">
+        <f t="shared" si="4"/>
+        <v>-45</v>
+      </c>
+      <c r="C12" s="49">
+        <v>-2.7463000000000001E-10</v>
+      </c>
+      <c r="D12" s="50">
+        <v>-1.0118000000000001E-10</v>
+      </c>
+      <c r="E12" s="51">
+        <v>-3.8667000000000002E-10</v>
+      </c>
+      <c r="F12" s="52">
+        <v>-1.3315E-10</v>
+      </c>
+      <c r="G12" s="38">
+        <v>-1.0175E-10</v>
+      </c>
+      <c r="H12" s="52">
+        <v>-3.0413000000000001E-10</v>
+      </c>
+      <c r="I12" s="52">
+        <v>-3.0378000000000001E-10</v>
+      </c>
+      <c r="J12" s="52">
+        <v>-1.0656E-10</v>
+      </c>
+      <c r="K12" s="52">
+        <v>-3.5154000000000001E-10</v>
+      </c>
+      <c r="L12" s="52">
+        <v>-1.0352E-10</v>
+      </c>
+      <c r="M12" s="52">
+        <v>-7.8785000000000002E-11</v>
+      </c>
+      <c r="N12" s="52">
+        <v>-5.7792999999999999E-10</v>
+      </c>
+      <c r="O12" s="53">
+        <v>-5.7792999999999999E-10</v>
+      </c>
+      <c r="T12" s="60">
         <f t="shared" si="0"/>
-        <v>-45</v>
-      </c>
-      <c r="C11" s="8">
-        <v>-2.7463000000000001E-10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-1.0118000000000001E-10</v>
-      </c>
-      <c r="E11" s="8">
-        <v>-3.8667000000000002E-10</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-1.3315E-10</v>
-      </c>
-      <c r="G11" s="4">
-        <v>-1.0175E-10</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-3.0413000000000001E-10</v>
-      </c>
-      <c r="I11" s="1">
-        <v>-3.0378000000000001E-10</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-1.0656E-10</v>
-      </c>
-      <c r="K11" s="1">
-        <v>-3.5154000000000001E-10</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-1.0352E-10</v>
-      </c>
-      <c r="M11" s="1">
-        <v>-7.8785000000000002E-11</v>
-      </c>
-      <c r="N11" s="1">
-        <v>-5.7792999999999999E-10</v>
-      </c>
-      <c r="O11" s="1">
-        <v>-5.7792999999999999E-10</v>
-      </c>
-      <c r="T11" s="1">
-        <f>AVERAGE(C11:R11)</f>
         <v>-2.6165807692307691E-10</v>
       </c>
-      <c r="U11" s="1">
-        <f>COUNT(C11:R11)</f>
+      <c r="U12" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V11" s="1">
-        <f>(STDEV(C11:R11))/SQRT(U11)</f>
+      <c r="V12" s="52">
+        <f t="shared" si="2"/>
         <v>4.9215170573672311E-11</v>
       </c>
-      <c r="W11" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C11:R11)),U11)</f>
+      <c r="W12" s="53">
+        <f t="shared" si="3"/>
         <v>9.6459961817393184E-11</v>
       </c>
-      <c r="AC11" s="8"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="AC12" s="8"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="26">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="C13" s="49">
+        <v>-1.8246999999999999E-10</v>
+      </c>
+      <c r="D13" s="50">
+        <v>-6.9352000000000003E-11</v>
+      </c>
+      <c r="E13" s="51">
+        <v>-2.6333999999999999E-10</v>
+      </c>
+      <c r="F13" s="52">
+        <v>-8.8384000000000005E-11</v>
+      </c>
+      <c r="G13" s="38">
+        <v>-6.8168000000000004E-11</v>
+      </c>
+      <c r="H13" s="52">
+        <v>-2.0104999999999999E-10</v>
+      </c>
+      <c r="I13" s="52">
+        <v>-2.0187E-10</v>
+      </c>
+      <c r="J13" s="52">
+        <v>-7.4452000000000003E-11</v>
+      </c>
+      <c r="K13" s="51">
+        <v>-2.3179000000000001E-10</v>
+      </c>
+      <c r="L13" s="52">
+        <v>-7.0349999999999995E-11</v>
+      </c>
+      <c r="M13" s="52">
+        <v>-5.1414999999999998E-11</v>
+      </c>
+      <c r="N13" s="52">
+        <v>-3.8330999999999999E-10</v>
+      </c>
+      <c r="O13" s="53">
+        <v>-3.8330999999999999E-10</v>
+      </c>
+      <c r="T13" s="60">
         <f t="shared" si="0"/>
-        <v>-30</v>
-      </c>
-      <c r="C12" s="8">
-        <v>-1.8246999999999999E-10</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-6.9352000000000003E-11</v>
-      </c>
-      <c r="E12" s="8">
-        <v>-2.6333999999999999E-10</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-8.8384000000000005E-11</v>
-      </c>
-      <c r="G12" s="4">
-        <v>-6.8168000000000004E-11</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-2.0104999999999999E-10</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-2.0187E-10</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-7.4452000000000003E-11</v>
-      </c>
-      <c r="K12" s="8">
-        <v>-2.3179000000000001E-10</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-7.0349999999999995E-11</v>
-      </c>
-      <c r="M12" s="1">
-        <v>-5.1414999999999998E-11</v>
-      </c>
-      <c r="N12" s="1">
-        <v>-3.8330999999999999E-10</v>
-      </c>
-      <c r="O12" s="1">
-        <v>-3.8330999999999999E-10</v>
-      </c>
-      <c r="T12" s="1">
-        <f>AVERAGE(C12:R12)</f>
         <v>-1.7455853846153846E-10</v>
       </c>
-      <c r="U12" s="1">
-        <f>COUNT(C12:R12)</f>
+      <c r="U13" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V12" s="1">
-        <f>(STDEV(C12:R12))/SQRT(U12)</f>
+      <c r="V13" s="52">
+        <f t="shared" si="2"/>
         <v>3.2589199216095375E-11</v>
       </c>
-      <c r="W12" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C12:R12)),U12)</f>
+      <c r="W13" s="53">
+        <f t="shared" si="3"/>
         <v>6.3873656748547879E-11</v>
       </c>
-      <c r="AC12" s="8"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="AC13" s="8"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14" s="26">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+      <c r="C14" s="49">
+        <v>-9.4392999999999997E-11</v>
+      </c>
+      <c r="D14" s="50">
+        <v>-3.6649000000000002E-11</v>
+      </c>
+      <c r="E14" s="51">
+        <v>-1.2952000000000001E-10</v>
+      </c>
+      <c r="F14" s="52">
+        <v>-4.6791000000000003E-11</v>
+      </c>
+      <c r="G14" s="38">
+        <v>-3.4994000000000002E-11</v>
+      </c>
+      <c r="H14" s="52">
+        <v>-1.0251E-10</v>
+      </c>
+      <c r="I14" s="52">
+        <v>-9.9212999999999999E-11</v>
+      </c>
+      <c r="J14" s="52">
+        <v>-3.9181000000000003E-11</v>
+      </c>
+      <c r="K14" s="52">
+        <v>-1.1797000000000001E-10</v>
+      </c>
+      <c r="L14" s="52">
+        <v>-3.4594000000000002E-11</v>
+      </c>
+      <c r="M14" s="52">
+        <v>-2.7162000000000001E-11</v>
+      </c>
+      <c r="N14" s="52">
+        <v>-1.9059999999999999E-10</v>
+      </c>
+      <c r="O14" s="53">
+        <v>-1.9059999999999999E-10</v>
+      </c>
+      <c r="T14" s="60">
         <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="C13" s="8">
-        <v>-9.4392999999999997E-11</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-3.6649000000000002E-11</v>
-      </c>
-      <c r="E13" s="8">
-        <v>-1.2952000000000001E-10</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-4.6791000000000003E-11</v>
-      </c>
-      <c r="G13" s="4">
-        <v>-3.4994000000000002E-11</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-1.0251E-10</v>
-      </c>
-      <c r="I13" s="1">
-        <v>-9.9212999999999999E-11</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-3.9181000000000003E-11</v>
-      </c>
-      <c r="K13" s="1">
-        <v>-1.1797000000000001E-10</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-3.4594000000000002E-11</v>
-      </c>
-      <c r="M13" s="1">
-        <v>-2.7162000000000001E-11</v>
-      </c>
-      <c r="N13" s="1">
-        <v>-1.9059999999999999E-10</v>
-      </c>
-      <c r="O13" s="1">
-        <v>-1.9059999999999999E-10</v>
-      </c>
-      <c r="T13" s="1">
-        <f>AVERAGE(C13:R13)</f>
         <v>-8.801361538461536E-11</v>
       </c>
-      <c r="U13" s="1">
-        <f>COUNT(C13:R13)</f>
+      <c r="U14" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V13" s="1">
-        <f>(STDEV(C13:R13))/SQRT(U13)</f>
+      <c r="V14" s="52">
+        <f t="shared" si="2"/>
         <v>1.6039668686847195E-11</v>
       </c>
-      <c r="W13" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C13:R13)),U13)</f>
+      <c r="W14" s="53">
+        <f t="shared" si="3"/>
         <v>3.1437172950175357E-11</v>
       </c>
-      <c r="AC13" s="8"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="AC14" s="8"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B15" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="49">
+        <v>-4.0504000000000001E-13</v>
+      </c>
+      <c r="D15" s="50">
+        <v>-9.2728999999999998E-13</v>
+      </c>
+      <c r="E15" s="51">
+        <v>1.4061E-12</v>
+      </c>
+      <c r="F15" s="52">
+        <v>-1.0454E-12</v>
+      </c>
+      <c r="G15" s="38">
+        <v>-1.0934E-12</v>
+      </c>
+      <c r="H15" s="52">
+        <v>-1.6409E-12</v>
+      </c>
+      <c r="I15" s="52">
+        <v>-8.3191000000000004E-13</v>
+      </c>
+      <c r="J15" s="52">
+        <v>-1.3644999999999999E-13</v>
+      </c>
+      <c r="K15" s="52">
+        <v>4.0018999999999998E-13</v>
+      </c>
+      <c r="L15" s="52">
+        <v>-6.7858000000000002E-13</v>
+      </c>
+      <c r="M15" s="52">
+        <v>6.1014999999999998E-13</v>
+      </c>
+      <c r="N15" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>-4.0504000000000001E-13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-9.2728999999999998E-13</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1.4061E-12</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-1.0454E-12</v>
-      </c>
-      <c r="G14" s="4">
-        <v>-1.0934E-12</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-1.6409E-12</v>
-      </c>
-      <c r="I14" s="1">
-        <v>-8.3191000000000004E-13</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-1.3644999999999999E-13</v>
-      </c>
-      <c r="K14" s="1">
-        <v>4.0018999999999998E-13</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-6.7858000000000002E-13</v>
-      </c>
-      <c r="M14" s="1">
-        <v>6.1014999999999998E-13</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" s="1">
-        <f>AVERAGE(C14:R14)</f>
         <v>-3.9477545454545461E-13</v>
       </c>
-      <c r="U14" s="1">
-        <f>COUNT(C14:R14)</f>
+      <c r="U15" s="52">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="V14" s="1">
-        <f>(STDEV(C14:R14))/SQRT(U14)</f>
+      <c r="V15" s="52">
+        <f t="shared" si="2"/>
         <v>2.6919498436285123E-13</v>
       </c>
-      <c r="W14" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C14:R14)),U14)</f>
+      <c r="W15" s="53">
+        <f t="shared" si="3"/>
         <v>5.2761247417001132E-13</v>
       </c>
-      <c r="AC14" s="8"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B16" s="26">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="49">
+        <v>1.0139E-10</v>
+      </c>
+      <c r="D16" s="50">
+        <v>4.1938999999999997E-11</v>
+      </c>
+      <c r="E16" s="51">
+        <v>1.2405E-10</v>
+      </c>
+      <c r="F16" s="52">
+        <v>4.8989000000000001E-11</v>
+      </c>
+      <c r="G16" s="38">
+        <v>4.7373E-11</v>
+      </c>
+      <c r="H16" s="52">
+        <v>1.0931E-10</v>
+      </c>
+      <c r="I16" s="52">
+        <v>1.0798999999999999E-10</v>
+      </c>
+      <c r="J16" s="52">
+        <v>4.4287999999999999E-11</v>
+      </c>
+      <c r="K16" s="52">
+        <v>1.2235E-10</v>
+      </c>
+      <c r="L16" s="52">
+        <v>3.2484000000000003E-11</v>
+      </c>
+      <c r="M16" s="52">
+        <v>3.3254999999999999E-11</v>
+      </c>
+      <c r="N16" s="52">
+        <v>1.9812000000000001E-10</v>
+      </c>
+      <c r="O16" s="53">
+        <v>1.9812000000000001E-10</v>
+      </c>
+      <c r="T16" s="60">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1.0139E-10</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4.1938999999999997E-11</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1.2405E-10</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4.8989000000000001E-11</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4.7373E-11</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1.0931E-10</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1.0798999999999999E-10</v>
-      </c>
-      <c r="J15" s="1">
-        <v>4.4287999999999999E-11</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1.2235E-10</v>
-      </c>
-      <c r="L15" s="1">
-        <v>3.2484000000000003E-11</v>
-      </c>
-      <c r="M15" s="1">
-        <v>3.3254999999999999E-11</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1.9812000000000001E-10</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1.9812000000000001E-10</v>
-      </c>
-      <c r="T15" s="1">
-        <f>AVERAGE(C15:R15)</f>
         <v>9.3050615384615375E-11</v>
       </c>
-      <c r="U15" s="1">
-        <f>COUNT(C15:R15)</f>
+      <c r="U16" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V15" s="1">
-        <f>(STDEV(C15:R15))/SQRT(U15)</f>
+      <c r="V16" s="52">
+        <f t="shared" si="2"/>
         <v>1.6155803115344504E-11</v>
       </c>
-      <c r="W15" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C15:R15)),U15)</f>
+      <c r="W16" s="53">
+        <f t="shared" si="3"/>
         <v>3.1664792247395224E-11</v>
       </c>
-      <c r="AC15" s="8"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+      <c r="AC16" s="8"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B17" s="26">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="C17" s="49">
+        <v>2.1193999999999999E-10</v>
+      </c>
+      <c r="D17" s="50">
+        <v>8.6503999999999994E-11</v>
+      </c>
+      <c r="E17" s="51">
+        <v>2.6236000000000001E-10</v>
+      </c>
+      <c r="F17" s="52">
+        <v>1.0423999999999999E-10</v>
+      </c>
+      <c r="G17" s="38">
+        <v>8.1416000000000006E-11</v>
+      </c>
+      <c r="H17" s="52">
+        <v>2.3645E-10</v>
+      </c>
+      <c r="I17" s="52">
+        <v>2.3182999999999999E-10</v>
+      </c>
+      <c r="J17" s="52">
+        <v>9.2527999999999998E-11</v>
+      </c>
+      <c r="K17" s="52">
+        <v>2.6248000000000001E-10</v>
+      </c>
+      <c r="L17" s="52">
+        <v>7.0905E-11</v>
+      </c>
+      <c r="M17" s="52">
+        <v>6.8772999999999999E-11</v>
+      </c>
+      <c r="N17" s="52">
+        <v>4.0241000000000001E-10</v>
+      </c>
+      <c r="O17" s="53">
+        <v>4.0241000000000001E-10</v>
+      </c>
+      <c r="T17" s="60">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2.1193999999999999E-10</v>
-      </c>
-      <c r="D16" s="3">
-        <v>8.6503999999999994E-11</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2.6236000000000001E-10</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.0423999999999999E-10</v>
-      </c>
-      <c r="G16" s="4">
-        <v>8.1416000000000006E-11</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2.3645E-10</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2.3182999999999999E-10</v>
-      </c>
-      <c r="J16" s="1">
-        <v>9.2527999999999998E-11</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2.6248000000000001E-10</v>
-      </c>
-      <c r="L16" s="1">
-        <v>7.0905E-11</v>
-      </c>
-      <c r="M16" s="1">
-        <v>6.8772999999999999E-11</v>
-      </c>
-      <c r="N16" s="1">
-        <v>4.0241000000000001E-10</v>
-      </c>
-      <c r="O16" s="1">
-        <v>4.0241000000000001E-10</v>
-      </c>
-      <c r="T16" s="1">
-        <f>AVERAGE(C16:R16)</f>
         <v>1.9340353846153846E-10</v>
       </c>
-      <c r="U16" s="1">
-        <f>COUNT(C16:R16)</f>
+      <c r="U17" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V16" s="1">
-        <f>(STDEV(C16:R16))/SQRT(U16)</f>
+      <c r="V17" s="52">
+        <f t="shared" si="2"/>
         <v>3.332056212849915E-11</v>
       </c>
-      <c r="W16" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C16:R16)),U16)</f>
+      <c r="W17" s="53">
+        <f t="shared" si="3"/>
         <v>6.5307101716487606E-11</v>
       </c>
-      <c r="AC16" s="8"/>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
+      <c r="AC17" s="8"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B18" s="26">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="C18" s="49">
+        <v>3.4497E-10</v>
+      </c>
+      <c r="D18" s="50">
+        <v>1.3567000000000001E-10</v>
+      </c>
+      <c r="E18" s="51">
+        <v>3.7922000000000001E-10</v>
+      </c>
+      <c r="F18" s="52">
+        <v>1.4187E-10</v>
+      </c>
+      <c r="G18" s="38">
+        <v>1.2048999999999999E-10</v>
+      </c>
+      <c r="H18" s="52">
+        <v>3.826E-10</v>
+      </c>
+      <c r="I18" s="52">
+        <v>3.7212E-10</v>
+      </c>
+      <c r="J18" s="52">
+        <v>1.5569999999999999E-10</v>
+      </c>
+      <c r="K18" s="52">
+        <v>4.2527000000000002E-10</v>
+      </c>
+      <c r="L18" s="52">
+        <v>1.0574E-10</v>
+      </c>
+      <c r="M18" s="52">
+        <v>1.0681E-10</v>
+      </c>
+      <c r="N18" s="52">
+        <v>6.2288000000000002E-10</v>
+      </c>
+      <c r="O18" s="53">
+        <v>6.2288000000000002E-10</v>
+      </c>
+      <c r="T18" s="60">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C17" s="8">
-        <v>3.4497E-10</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1.3567000000000001E-10</v>
-      </c>
-      <c r="E17" s="8">
-        <v>3.7922000000000001E-10</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1.4187E-10</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1.2048999999999999E-10</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3.826E-10</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3.7212E-10</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.5569999999999999E-10</v>
-      </c>
-      <c r="K17" s="1">
-        <v>4.2527000000000002E-10</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1.0574E-10</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1.0681E-10</v>
-      </c>
-      <c r="N17" s="1">
-        <v>6.2288000000000002E-10</v>
-      </c>
-      <c r="O17" s="1">
-        <v>6.2288000000000002E-10</v>
-      </c>
-      <c r="T17" s="1">
-        <f>AVERAGE(C17:R17)</f>
         <v>3.0124769230769232E-10</v>
       </c>
-      <c r="U17" s="1">
-        <f>COUNT(C17:R17)</f>
+      <c r="U18" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V17" s="1">
-        <f>(STDEV(C17:R17))/SQRT(U17)</f>
+      <c r="V18" s="52">
+        <f t="shared" si="2"/>
         <v>5.2171597258025845E-11</v>
       </c>
-      <c r="W17" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C17:R17)),U17)</f>
+      <c r="W18" s="53">
+        <f t="shared" si="3"/>
         <v>1.0225445164165926E-10</v>
       </c>
-      <c r="AC17" s="8"/>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+      <c r="AC18" s="8"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B19" s="26">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="C19" s="49">
+        <v>5.0953999999999998E-10</v>
+      </c>
+      <c r="D19" s="50">
+        <v>2.0112E-10</v>
+      </c>
+      <c r="E19" s="51">
+        <v>5.2390000000000002E-10</v>
+      </c>
+      <c r="F19" s="52">
+        <v>1.9958E-10</v>
+      </c>
+      <c r="G19" s="38">
+        <v>1.6526000000000001E-10</v>
+      </c>
+      <c r="H19" s="52">
+        <v>5.5684000000000001E-10</v>
+      </c>
+      <c r="I19" s="52">
+        <v>5.5139999999999998E-10</v>
+      </c>
+      <c r="J19" s="52">
+        <v>2.3929999999999999E-10</v>
+      </c>
+      <c r="K19" s="52">
+        <v>6.0809000000000002E-10</v>
+      </c>
+      <c r="L19" s="52">
+        <v>1.4668E-10</v>
+      </c>
+      <c r="M19" s="52">
+        <v>1.5104E-10</v>
+      </c>
+      <c r="N19" s="52">
+        <v>8.6619999999999997E-10</v>
+      </c>
+      <c r="O19" s="53">
+        <v>8.6619999999999997E-10</v>
+      </c>
+      <c r="T19" s="60">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C18" s="8">
-        <v>5.0953999999999998E-10</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2.0112E-10</v>
-      </c>
-      <c r="E18" s="8">
-        <v>5.2390000000000002E-10</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.9958E-10</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1.6526000000000001E-10</v>
-      </c>
-      <c r="H18" s="1">
-        <v>5.5684000000000001E-10</v>
-      </c>
-      <c r="I18" s="1">
-        <v>5.5139999999999998E-10</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2.3929999999999999E-10</v>
-      </c>
-      <c r="K18" s="1">
-        <v>6.0809000000000002E-10</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1.4668E-10</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1.5104E-10</v>
-      </c>
-      <c r="N18" s="1">
-        <v>8.6619999999999997E-10</v>
-      </c>
-      <c r="O18" s="1">
-        <v>8.6619999999999997E-10</v>
-      </c>
-      <c r="T18" s="1">
-        <f>AVERAGE(C18:R18)</f>
         <v>4.2962692307692315E-10</v>
       </c>
-      <c r="U18" s="1">
-        <f>COUNT(C18:R18)</f>
+      <c r="U19" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V18" s="1">
-        <f>(STDEV(C18:R18))/SQRT(U18)</f>
+      <c r="V19" s="52">
+        <f t="shared" si="2"/>
         <v>7.2864793047655829E-11</v>
       </c>
-      <c r="W18" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C18:R18)),U18)</f>
+      <c r="W19" s="53">
+        <f t="shared" si="3"/>
         <v>1.428123701143699E-10</v>
       </c>
-      <c r="AC18" s="8"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
+      <c r="AC19" s="8"/>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B20" s="26">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="C20" s="49">
+        <v>6.8445000000000005E-10</v>
+      </c>
+      <c r="D20" s="50">
+        <v>2.6911000000000001E-10</v>
+      </c>
+      <c r="E20" s="51">
+        <v>6.8640000000000003E-10</v>
+      </c>
+      <c r="F20" s="52">
+        <v>2.6104000000000001E-10</v>
+      </c>
+      <c r="G20" s="38">
+        <v>2.2218E-10</v>
+      </c>
+      <c r="H20" s="52">
+        <v>7.6696000000000001E-10</v>
+      </c>
+      <c r="I20" s="52">
+        <v>7.5561000000000004E-10</v>
+      </c>
+      <c r="J20" s="52">
+        <v>3.2650000000000001E-10</v>
+      </c>
+      <c r="K20" s="52">
+        <v>8.2050999999999999E-10</v>
+      </c>
+      <c r="L20" s="52">
+        <v>1.8378999999999999E-10</v>
+      </c>
+      <c r="M20" s="52">
+        <v>2.0514E-10</v>
+      </c>
+      <c r="N20" s="52">
+        <v>1.1294E-9</v>
+      </c>
+      <c r="O20" s="53">
+        <v>1.1294E-9</v>
+      </c>
+      <c r="T20" s="60">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="C19" s="8">
-        <v>6.8445000000000005E-10</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2.6911000000000001E-10</v>
-      </c>
-      <c r="E19" s="8">
-        <v>6.8640000000000003E-10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2.6104000000000001E-10</v>
-      </c>
-      <c r="G19" s="4">
-        <v>2.2218E-10</v>
-      </c>
-      <c r="H19" s="1">
-        <v>7.6696000000000001E-10</v>
-      </c>
-      <c r="I19" s="1">
-        <v>7.5561000000000004E-10</v>
-      </c>
-      <c r="J19" s="1">
-        <v>3.2650000000000001E-10</v>
-      </c>
-      <c r="K19" s="1">
-        <v>8.2050999999999999E-10</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1.8378999999999999E-10</v>
-      </c>
-      <c r="M19" s="1">
-        <v>2.0514E-10</v>
-      </c>
-      <c r="N19" s="1">
-        <v>1.1294E-9</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1.1294E-9</v>
-      </c>
-      <c r="T19" s="1">
-        <f>AVERAGE(C19:R19)</f>
         <v>5.723453846153846E-10</v>
       </c>
-      <c r="U19" s="1">
-        <f>COUNT(C19:R19)</f>
+      <c r="U20" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V19" s="1">
-        <f>(STDEV(C19:R19))/SQRT(U19)</f>
+      <c r="V20" s="52">
+        <f t="shared" si="2"/>
         <v>9.5975945347802338E-11</v>
       </c>
-      <c r="W19" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C19:R19)),U19)</f>
+      <c r="W20" s="53">
+        <f t="shared" si="3"/>
         <v>1.881093962638771E-10</v>
       </c>
-      <c r="AC19" s="8"/>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+      <c r="AC20" s="8"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
         <v>90</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C21" s="49">
         <v>9.1120000000000002E-10</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="50">
         <v>3.5292999999999999E-10</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="51">
         <v>8.9506000000000001E-10</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="52">
         <v>3.3149999999999999E-10</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G21" s="38">
         <v>2.8748000000000002E-10</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="52">
         <v>1.0255E-9</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I21" s="52">
         <v>9.9824999999999994E-10</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J21" s="52">
         <v>4.3367000000000001E-10</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K21" s="52">
         <v>1.0745E-9</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L21" s="52">
         <v>2.341E-10</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M21" s="52">
         <v>2.7659000000000002E-10</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N21" s="52">
         <v>1.4107000000000001E-9</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O21" s="53">
         <v>1.4107000000000001E-9</v>
       </c>
-      <c r="T20" s="1">
-        <f>AVERAGE(C20:R20)</f>
+      <c r="T21" s="60">
+        <f t="shared" si="0"/>
         <v>7.4170615384615393E-10</v>
       </c>
-      <c r="U20" s="1">
-        <f>COUNT(C20:R20)</f>
+      <c r="U21" s="52">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V20" s="1">
-        <f>(STDEV(C20:R20))/SQRT(U20)</f>
+      <c r="V21" s="52">
+        <f t="shared" si="2"/>
         <v>1.2139882449658184E-10</v>
       </c>
-      <c r="W20" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C20:R20)),U20)</f>
+      <c r="W21" s="53">
+        <f t="shared" si="3"/>
         <v>2.3793732377879923E-10</v>
       </c>
-      <c r="AC20" s="8"/>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
+      <c r="AC21" s="8"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B22" s="27">
         <v>105</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C22" s="54">
         <v>1.1537000000000001E-9</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="55">
         <v>4.3667999999999999E-10</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="56">
         <v>1.0493000000000001E-9</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="57">
         <v>4.0009999999999999E-10</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="42">
         <v>3.5429000000000002E-10</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="57">
         <v>1.3404E-9</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I22" s="57">
         <v>1.2832000000000001E-9</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J22" s="57">
         <v>5.2133999999999998E-10</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K22" s="57">
         <v>1.37E-9</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L22" s="57">
         <v>3.1341000000000001E-10</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M22" s="57">
         <v>3.6044999999999998E-10</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N22" s="57">
         <v>1.7302999999999999E-9</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O22" s="58">
         <v>1.7302999999999999E-9</v>
       </c>
-      <c r="T21" s="1">
-        <f>AVERAGE(C21:R21)</f>
+      <c r="T22" s="61">
+        <f t="shared" si="0"/>
         <v>9.2642076923076919E-10</v>
       </c>
-      <c r="U21" s="1">
-        <f>COUNT(C21:R21)</f>
+      <c r="U22" s="57">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V21" s="1">
-        <f>(STDEV(C21:R21))/SQRT(U21)</f>
+      <c r="V22" s="57">
+        <f t="shared" si="2"/>
         <v>1.510438101052292E-10</v>
       </c>
-      <c r="W21" s="1">
-        <f>CONFIDENCE(0.05,(STDEV(C21:R21)),U21)</f>
+      <c r="W22" s="58">
+        <f t="shared" si="3"/>
         <v>2.9604042789395623E-10</v>
       </c>
-      <c r="AC21" s="8"/>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W23" s="2"/>
       <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="J24" s="8"/>
+      <c r="W24" s="2"/>
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
@@ -5691,6 +5979,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="J26" s="8"/>
+      <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
@@ -5738,13 +6027,13 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.25">
@@ -5784,7 +6073,10 @@
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D42" s="1"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
@@ -5830,6 +6122,9 @@
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5840,10 +6135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCD93E4-C3D8-4D3B-B7B2-1BC619E1F008}">
-  <dimension ref="A1:AD42"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5862,406 +6157,387 @@
     <col min="18" max="18" width="2.5703125" style="4" customWidth="1"/>
     <col min="19" max="19" width="2.140625" style="4" customWidth="1"/>
     <col min="20" max="20" width="2.28515625" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="4"/>
+    <col min="21" max="21" width="11.42578125" style="4"/>
+    <col min="22" max="22" width="6.5703125" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4">
         <v>44.22</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="24">
+        <v>352962</v>
+      </c>
+      <c r="D2" s="24">
+        <v>1469094</v>
+      </c>
+      <c r="E2" s="24">
+        <v>858195</v>
+      </c>
+      <c r="F2" s="24">
+        <v>979333</v>
+      </c>
+      <c r="G2" s="24">
+        <v>1464056</v>
+      </c>
+      <c r="H2" s="24">
+        <v>537316</v>
+      </c>
+      <c r="I2" s="24">
+        <v>1516564</v>
+      </c>
+      <c r="J2" s="24">
+        <v>1351188</v>
+      </c>
+      <c r="K2" s="24">
+        <v>613892</v>
+      </c>
+      <c r="L2" s="24">
+        <v>421837</v>
+      </c>
+      <c r="M2" s="24">
+        <v>1574590</v>
+      </c>
+      <c r="N2" s="24">
+        <v>1065231</v>
+      </c>
+      <c r="O2" s="24">
+        <v>1692901</v>
+      </c>
+      <c r="P2" s="24">
+        <v>709022</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>1040261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
-        <v>352962</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1469094</v>
-      </c>
-      <c r="E2" s="4">
-        <v>858195</v>
-      </c>
-      <c r="F2" s="4">
-        <v>979333</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1464056</v>
-      </c>
-      <c r="H2" s="4">
-        <v>537316</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1516564</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1351188</v>
-      </c>
-      <c r="K2" s="4">
-        <v>613892</v>
-      </c>
-      <c r="L2" s="4">
-        <v>421837</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1574590</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1065231</v>
-      </c>
-      <c r="O2" s="4">
-        <v>1692901</v>
-      </c>
-      <c r="P2" s="4">
-        <v>709022</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1040261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="G3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="4" t="s">
+      <c r="W4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="X4" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="29">
         <v>-150</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5" s="32">
         <v>-2.5814999999999998E-9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5" s="33">
         <v>-1.3176000000000001E-9</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E5" s="33">
         <v>-2.3499999999999999E-9</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="34">
         <v>-3.6929000000000002E-10</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G5" s="34">
         <v>-2.7000000000000002E-9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H5" s="34">
         <v>-1.9000000000000001E-9</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I5" s="33">
         <v>-2.1000000000000002E-9</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J5" s="34">
         <v>-3.9000000000000002E-9</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K5" s="33">
         <v>-7.7999999999999999E-10</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L5" s="33">
         <v>-1.2E-9</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M5" s="34">
         <v>-3.9000000000000002E-9</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N5" s="34">
         <v>-1.9000000000000001E-9</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O5" s="33">
         <v>-2.9591999999999999E-9</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P5" s="33">
         <v>-7.6221999999999998E-10</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q5" s="35">
         <v>-2.4010999999999999E-9</v>
       </c>
-      <c r="U4" s="4">
-        <f>AVERAGE(C4:S4)</f>
+      <c r="U5" s="62">
+        <f>AVERAGE(C5:S5)</f>
         <v>-2.0747273333333338E-9</v>
       </c>
-      <c r="V4" s="4">
-        <f>COUNT(C4:R4)</f>
+      <c r="V5" s="34">
+        <f>COUNT(C5:R5)</f>
         <v>15</v>
       </c>
-      <c r="W4" s="4">
-        <f>(STDEV(C4:S4))/SQRT(V4)</f>
+      <c r="W5" s="34">
+        <f>(STDEV(C5:S5))/SQRT(V5)</f>
         <v>2.758813554280633E-10</v>
       </c>
-      <c r="X4" s="4">
-        <f>CONFIDENCE(0.05,(STDEV(C4:S4)),V4)</f>
+      <c r="X5" s="63">
+        <f>CONFIDENCE(0.05,(STDEV(C5:S5)),V5)</f>
         <v>5.4071752064509767E-10</v>
       </c>
-      <c r="AA4" s="9"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <f>B4+15</f>
+      <c r="AA5" s="9"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="30">
+        <f>B5+15</f>
         <v>-135</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="36">
         <v>-2.1948999999999999E-9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="37">
         <v>-1.1235000000000001E-9</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="37">
         <v>-1.9769000000000001E-9</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="38">
         <v>-2.8945000000000002E-10</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G6" s="38">
         <v>-2.4E-9</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H6" s="38">
         <v>-1.6999999999999999E-9</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I6" s="37">
         <v>-1.8E-9</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J6" s="38">
         <v>-3.2000000000000001E-9</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K6" s="37">
         <v>-6.0999999999999996E-10</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L6" s="37">
         <v>-9.7999999999999992E-10</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M6" s="38">
         <v>-3.3999999999999998E-9</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N6" s="38">
         <v>-1.6999999999999999E-9</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O6" s="37">
         <v>-2.5581000000000001E-9</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P6" s="37">
         <v>-6.4607000000000002E-10</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q6" s="39">
         <v>-1.9412999999999999E-9</v>
       </c>
-      <c r="U5" s="4">
-        <f t="shared" ref="U5:U19" si="0">AVERAGE(C5:S5)</f>
+      <c r="U6" s="64">
+        <f t="shared" ref="U6:U20" si="0">AVERAGE(C6:S6)</f>
         <v>-1.7680146666666665E-9</v>
       </c>
-      <c r="V5" s="4">
-        <f t="shared" ref="V5:V19" si="1">COUNT(C5:S5)</f>
+      <c r="V6" s="38">
+        <f t="shared" ref="V6:V20" si="1">COUNT(C6:S6)</f>
         <v>15</v>
       </c>
-      <c r="W5" s="4">
-        <f t="shared" ref="W5:W19" si="2">(STDEV(C5:S5))/SQRT(V5)</f>
+      <c r="W6" s="38">
+        <f t="shared" ref="W6:W20" si="2">(STDEV(C6:S6))/SQRT(V6)</f>
         <v>2.3730674336909276E-10</v>
       </c>
-      <c r="X5" s="4">
-        <f t="shared" ref="X5:X19" si="3">CONFIDENCE(0.05,(STDEV(C5:S5)),V5)</f>
+      <c r="X6" s="39">
+        <f t="shared" ref="X6:X20" si="3">CONFIDENCE(0.05,(STDEV(C6:S6)),V6)</f>
         <v>4.6511267029191102E-10</v>
       </c>
-      <c r="AB5" s="7"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <f t="shared" ref="B6:B19" si="4">B5+15</f>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="30">
+        <f t="shared" ref="B7:B20" si="4">B6+15</f>
         <v>-120</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="36">
         <v>-1.8503999999999999E-9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="37">
         <v>-9.5265000000000001E-10</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="37">
         <v>-1.6459000000000001E-9</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="38">
         <v>-2.2809999999999999E-10</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="38">
         <v>-2.1000000000000002E-9</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="38">
         <v>-1.3999999999999999E-9</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="37">
         <v>-1.6000000000000001E-9</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="38">
         <v>-2.7000000000000002E-9</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K7" s="37">
         <v>-4.8E-10</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L7" s="37">
         <v>-8.0999999999999999E-10</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M7" s="38">
         <v>-2.8999999999999999E-9</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N7" s="38">
         <v>-1.5E-9</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O7" s="37">
         <v>-2.1874000000000001E-9</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P7" s="37">
         <v>-5.4211999999999998E-10</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q7" s="39">
         <v>-1.5458E-9</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U7" s="64">
         <f t="shared" si="0"/>
         <v>-1.4961579999999999E-9</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V7" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W7" s="38">
         <f t="shared" si="2"/>
         <v>2.0412201862564832E-10</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X7" s="39">
         <f t="shared" si="3"/>
         <v>4.0007180495788474E-10</v>
-      </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <f t="shared" si="4"/>
-        <v>-105</v>
-      </c>
-      <c r="C7" s="7">
-        <v>-1.5327000000000001E-9</v>
-      </c>
-      <c r="D7" s="7">
-        <v>-8.0678999999999996E-10</v>
-      </c>
-      <c r="E7" s="7">
-        <v>-1.3506000000000001E-9</v>
-      </c>
-      <c r="F7" s="4">
-        <v>-1.8151E-10</v>
-      </c>
-      <c r="G7" s="4">
-        <v>-1.8E-9</v>
-      </c>
-      <c r="H7" s="4">
-        <v>-1.2E-9</v>
-      </c>
-      <c r="I7" s="7">
-        <v>-1.3999999999999999E-9</v>
-      </c>
-      <c r="J7" s="4">
-        <v>-2.1999999999999998E-9</v>
-      </c>
-      <c r="K7" s="7">
-        <v>-3.7999999999999998E-10</v>
-      </c>
-      <c r="L7" s="7">
-        <v>-6.6E-10</v>
-      </c>
-      <c r="M7" s="4">
-        <v>-2.5000000000000001E-9</v>
-      </c>
-      <c r="N7" s="4">
-        <v>-1.2E-9</v>
-      </c>
-      <c r="O7" s="7">
-        <v>-1.8671999999999999E-9</v>
-      </c>
-      <c r="P7" s="7">
-        <v>-4.4113999999999999E-10</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>-1.2205000000000001E-9</v>
-      </c>
-      <c r="U7" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.2493626666666669E-9</v>
-      </c>
-      <c r="V7" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="W7" s="4">
-        <f t="shared" si="2"/>
-        <v>1.7408536672855614E-10</v>
-      </c>
-      <c r="X7" s="4">
-        <f t="shared" si="3"/>
-        <v>3.4120104902341738E-10</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
@@ -6269,70 +6545,70 @@
       <c r="AD7" s="7"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="30">
         <f t="shared" si="4"/>
-        <v>-90</v>
-      </c>
-      <c r="C8" s="7">
-        <v>-1.2447000000000001E-9</v>
-      </c>
-      <c r="D8" s="7">
-        <v>-6.6157000000000002E-10</v>
-      </c>
-      <c r="E8" s="7">
-        <v>-1.0941E-9</v>
-      </c>
-      <c r="F8" s="4">
-        <v>-1.4411000000000001E-10</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-1.5E-9</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-1.0000000000000001E-9</v>
-      </c>
-      <c r="I8" s="7">
+        <v>-105</v>
+      </c>
+      <c r="C8" s="36">
+        <v>-1.5327000000000001E-9</v>
+      </c>
+      <c r="D8" s="37">
+        <v>-8.0678999999999996E-10</v>
+      </c>
+      <c r="E8" s="37">
+        <v>-1.3506000000000001E-9</v>
+      </c>
+      <c r="F8" s="38">
+        <v>-1.8151E-10</v>
+      </c>
+      <c r="G8" s="38">
+        <v>-1.8E-9</v>
+      </c>
+      <c r="H8" s="38">
         <v>-1.2E-9</v>
       </c>
-      <c r="J8" s="4">
-        <v>-1.8E-9</v>
-      </c>
-      <c r="K8" s="7">
-        <v>-2.8999999999999998E-10</v>
-      </c>
-      <c r="L8" s="7">
-        <v>-5.3000000000000003E-10</v>
-      </c>
-      <c r="M8" s="4">
-        <v>-2.1000000000000002E-9</v>
-      </c>
-      <c r="N8" s="4">
-        <v>-1.0999999999999999E-9</v>
-      </c>
-      <c r="O8" s="7">
-        <v>-1.5622E-9</v>
-      </c>
-      <c r="P8" s="7">
-        <v>-3.6355E-10</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>-9.5058999999999992E-10</v>
-      </c>
-      <c r="U8" s="4">
+      <c r="I8" s="37">
+        <v>-1.3999999999999999E-9</v>
+      </c>
+      <c r="J8" s="38">
+        <v>-2.1999999999999998E-9</v>
+      </c>
+      <c r="K8" s="37">
+        <v>-3.7999999999999998E-10</v>
+      </c>
+      <c r="L8" s="37">
+        <v>-6.6E-10</v>
+      </c>
+      <c r="M8" s="38">
+        <v>-2.5000000000000001E-9</v>
+      </c>
+      <c r="N8" s="38">
+        <v>-1.2E-9</v>
+      </c>
+      <c r="O8" s="37">
+        <v>-1.8671999999999999E-9</v>
+      </c>
+      <c r="P8" s="37">
+        <v>-4.4113999999999999E-10</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>-1.2205000000000001E-9</v>
+      </c>
+      <c r="U8" s="64">
         <f t="shared" si="0"/>
-        <v>-1.0360546666666667E-9</v>
-      </c>
-      <c r="V8" s="4">
+        <v>-1.2493626666666669E-9</v>
+      </c>
+      <c r="V8" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="38">
         <f t="shared" si="2"/>
-        <v>1.4630195719768419E-10</v>
-      </c>
-      <c r="X8" s="4">
+        <v>1.7408536672855614E-10</v>
+      </c>
+      <c r="X8" s="39">
         <f t="shared" si="3"/>
-        <v>2.8674656697518149E-10</v>
+        <v>3.4120104902341738E-10</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
@@ -6340,70 +6616,70 @@
       <c r="AD8" s="7"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="B9" s="30">
         <f t="shared" si="4"/>
-        <v>-75</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-9.9421000000000002E-10</v>
-      </c>
-      <c r="D9" s="7">
-        <v>-5.3318000000000001E-10</v>
-      </c>
-      <c r="E9" s="7">
-        <v>-8.6857000000000003E-10</v>
-      </c>
-      <c r="F9" s="4">
-        <v>-1.1184E-10</v>
-      </c>
-      <c r="G9" s="4">
+        <v>-90</v>
+      </c>
+      <c r="C9" s="36">
+        <v>-1.2447000000000001E-9</v>
+      </c>
+      <c r="D9" s="37">
+        <v>-6.6157000000000002E-10</v>
+      </c>
+      <c r="E9" s="37">
+        <v>-1.0941E-9</v>
+      </c>
+      <c r="F9" s="38">
+        <v>-1.4411000000000001E-10</v>
+      </c>
+      <c r="G9" s="38">
+        <v>-1.5E-9</v>
+      </c>
+      <c r="H9" s="38">
+        <v>-1.0000000000000001E-9</v>
+      </c>
+      <c r="I9" s="37">
         <v>-1.2E-9</v>
       </c>
-      <c r="H9" s="4">
-        <v>-8.1999999999999996E-10</v>
-      </c>
-      <c r="I9" s="7">
-        <v>-9.5000000000000003E-10</v>
-      </c>
-      <c r="J9" s="4">
-        <v>-1.3999999999999999E-9</v>
-      </c>
-      <c r="K9" s="7">
-        <v>-2.1999999999999999E-10</v>
-      </c>
-      <c r="L9" s="7">
-        <v>-4.0999999999999998E-10</v>
-      </c>
-      <c r="M9" s="4">
-        <v>-1.6999999999999999E-9</v>
-      </c>
-      <c r="N9" s="4">
-        <v>-8.6000000000000003E-10</v>
-      </c>
-      <c r="O9" s="7">
-        <v>-1.287E-9</v>
-      </c>
-      <c r="P9" s="7">
-        <v>-2.9166999999999999E-10</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>-7.2820000000000003E-10</v>
-      </c>
-      <c r="U9" s="4">
+      <c r="J9" s="38">
+        <v>-1.8E-9</v>
+      </c>
+      <c r="K9" s="37">
+        <v>-2.8999999999999998E-10</v>
+      </c>
+      <c r="L9" s="37">
+        <v>-5.3000000000000003E-10</v>
+      </c>
+      <c r="M9" s="38">
+        <v>-2.1000000000000002E-9</v>
+      </c>
+      <c r="N9" s="38">
+        <v>-1.0999999999999999E-9</v>
+      </c>
+      <c r="O9" s="37">
+        <v>-1.5622E-9</v>
+      </c>
+      <c r="P9" s="37">
+        <v>-3.6355E-10</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>-9.5058999999999992E-10</v>
+      </c>
+      <c r="U9" s="64">
         <f t="shared" si="0"/>
-        <v>-8.2497800000000006E-10</v>
-      </c>
-      <c r="V9" s="4">
+        <v>-1.0360546666666667E-9</v>
+      </c>
+      <c r="V9" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="38">
         <f t="shared" si="2"/>
-        <v>1.1798994284502145E-10</v>
-      </c>
-      <c r="X9" s="4">
+        <v>1.4630195719768419E-10</v>
+      </c>
+      <c r="X9" s="39">
         <f t="shared" si="3"/>
-        <v>2.3125603851418143E-10</v>
+        <v>2.8674656697518149E-10</v>
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
@@ -6411,70 +6687,70 @@
       <c r="AD9" s="7"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="B10" s="30">
         <f t="shared" si="4"/>
-        <v>-60</v>
-      </c>
-      <c r="C10" s="7">
-        <v>-7.5845999999999998E-10</v>
-      </c>
-      <c r="D10" s="7">
-        <v>-4.1470000000000003E-10</v>
-      </c>
-      <c r="E10" s="7">
-        <v>-6.6698000000000001E-10</v>
-      </c>
-      <c r="F10" s="4">
-        <v>-8.4114000000000003E-11</v>
-      </c>
-      <c r="G10" s="4">
-        <v>-9.6999999999999996E-10</v>
-      </c>
-      <c r="H10" s="4">
-        <v>-6.3999999999999996E-10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>-7.5E-10</v>
-      </c>
-      <c r="J10" s="4">
-        <v>-1.0999999999999999E-9</v>
-      </c>
-      <c r="K10" s="7">
-        <v>-1.5999999999999999E-10</v>
-      </c>
-      <c r="L10" s="7">
-        <v>-3.1999999999999998E-10</v>
-      </c>
-      <c r="M10" s="4">
-        <v>-1.3000000000000001E-9</v>
-      </c>
-      <c r="N10" s="4">
-        <v>-6.8000000000000003E-10</v>
-      </c>
-      <c r="O10" s="7">
-        <v>-1.0363E-9</v>
-      </c>
-      <c r="P10" s="7">
-        <v>-2.2673E-10</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>-5.4135999999999998E-10</v>
-      </c>
-      <c r="U10" s="4">
+        <v>-75</v>
+      </c>
+      <c r="C10" s="36">
+        <v>-9.9421000000000002E-10</v>
+      </c>
+      <c r="D10" s="37">
+        <v>-5.3318000000000001E-10</v>
+      </c>
+      <c r="E10" s="37">
+        <v>-8.6857000000000003E-10</v>
+      </c>
+      <c r="F10" s="38">
+        <v>-1.1184E-10</v>
+      </c>
+      <c r="G10" s="38">
+        <v>-1.2E-9</v>
+      </c>
+      <c r="H10" s="38">
+        <v>-8.1999999999999996E-10</v>
+      </c>
+      <c r="I10" s="37">
+        <v>-9.5000000000000003E-10</v>
+      </c>
+      <c r="J10" s="38">
+        <v>-1.3999999999999999E-9</v>
+      </c>
+      <c r="K10" s="37">
+        <v>-2.1999999999999999E-10</v>
+      </c>
+      <c r="L10" s="37">
+        <v>-4.0999999999999998E-10</v>
+      </c>
+      <c r="M10" s="38">
+        <v>-1.6999999999999999E-9</v>
+      </c>
+      <c r="N10" s="38">
+        <v>-8.6000000000000003E-10</v>
+      </c>
+      <c r="O10" s="37">
+        <v>-1.287E-9</v>
+      </c>
+      <c r="P10" s="37">
+        <v>-2.9166999999999999E-10</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>-7.2820000000000003E-10</v>
+      </c>
+      <c r="U10" s="64">
         <f t="shared" si="0"/>
-        <v>-6.4324293333333321E-10</v>
-      </c>
-      <c r="V10" s="4">
+        <v>-8.2497800000000006E-10</v>
+      </c>
+      <c r="V10" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="38">
         <f t="shared" si="2"/>
-        <v>9.2955388948189583E-11</v>
-      </c>
-      <c r="X10" s="4">
+        <v>1.1798994284502145E-10</v>
+      </c>
+      <c r="X10" s="39">
         <f t="shared" si="3"/>
-        <v>1.8218921450736412E-10</v>
+        <v>2.3125603851418143E-10</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
@@ -6482,70 +6758,70 @@
       <c r="AD10" s="7"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+      <c r="B11" s="30">
         <f t="shared" si="4"/>
-        <v>-45</v>
-      </c>
-      <c r="C11" s="7">
-        <v>-5.5312000000000005E-10</v>
-      </c>
-      <c r="D11" s="7">
-        <v>-3.0298000000000002E-10</v>
-      </c>
-      <c r="E11" s="7">
-        <v>-4.9031000000000004E-10</v>
-      </c>
-      <c r="F11" s="4">
-        <v>-6.2152000000000004E-11</v>
-      </c>
-      <c r="G11" s="4">
-        <v>-7.2E-10</v>
-      </c>
-      <c r="H11" s="4">
-        <v>-4.7000000000000003E-10</v>
-      </c>
-      <c r="I11" s="7">
-        <v>-5.6000000000000003E-10</v>
-      </c>
-      <c r="J11" s="4">
-        <v>-8.0000000000000003E-10</v>
-      </c>
-      <c r="K11" s="7">
-        <v>-1.0999999999999999E-10</v>
-      </c>
-      <c r="L11" s="7">
-        <v>-2.3000000000000001E-10</v>
-      </c>
-      <c r="M11" s="4">
-        <v>-9.900000000000001E-10</v>
-      </c>
-      <c r="N11" s="4">
-        <v>-5.1E-10</v>
-      </c>
-      <c r="O11" s="7">
-        <v>-7.6926999999999997E-10</v>
-      </c>
-      <c r="P11" s="7">
-        <v>-1.6757E-10</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>-3.8639E-10</v>
-      </c>
-      <c r="U11" s="4">
+        <v>-60</v>
+      </c>
+      <c r="C11" s="36">
+        <v>-7.5845999999999998E-10</v>
+      </c>
+      <c r="D11" s="37">
+        <v>-4.1470000000000003E-10</v>
+      </c>
+      <c r="E11" s="37">
+        <v>-6.6698000000000001E-10</v>
+      </c>
+      <c r="F11" s="38">
+        <v>-8.4114000000000003E-11</v>
+      </c>
+      <c r="G11" s="38">
+        <v>-9.6999999999999996E-10</v>
+      </c>
+      <c r="H11" s="38">
+        <v>-6.3999999999999996E-10</v>
+      </c>
+      <c r="I11" s="37">
+        <v>-7.5E-10</v>
+      </c>
+      <c r="J11" s="38">
+        <v>-1.0999999999999999E-9</v>
+      </c>
+      <c r="K11" s="37">
+        <v>-1.5999999999999999E-10</v>
+      </c>
+      <c r="L11" s="37">
+        <v>-3.1999999999999998E-10</v>
+      </c>
+      <c r="M11" s="38">
+        <v>-1.3000000000000001E-9</v>
+      </c>
+      <c r="N11" s="38">
+        <v>-6.8000000000000003E-10</v>
+      </c>
+      <c r="O11" s="37">
+        <v>-1.0363E-9</v>
+      </c>
+      <c r="P11" s="37">
+        <v>-2.2673E-10</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>-5.4135999999999998E-10</v>
+      </c>
+      <c r="U11" s="64">
         <f t="shared" si="0"/>
-        <v>-4.7478613333333335E-10</v>
-      </c>
-      <c r="V11" s="4">
+        <v>-6.4324293333333321E-10</v>
+      </c>
+      <c r="V11" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="38">
         <f t="shared" si="2"/>
-        <v>6.9963615231664839E-11</v>
-      </c>
-      <c r="X11" s="4">
+        <v>9.2955388948189583E-11</v>
+      </c>
+      <c r="X11" s="39">
         <f t="shared" si="3"/>
-        <v>1.3712616608228099E-10</v>
+        <v>1.8218921450736412E-10</v>
       </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
@@ -6553,70 +6829,70 @@
       <c r="AD11" s="7"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="B12" s="30">
         <f t="shared" si="4"/>
-        <v>-30</v>
-      </c>
-      <c r="C12" s="7">
-        <v>-3.6076999999999999E-10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>-1.9988000000000001E-10</v>
-      </c>
-      <c r="E12" s="7">
-        <v>-3.2054000000000001E-10</v>
-      </c>
-      <c r="F12" s="4">
-        <v>-4.0723000000000002E-11</v>
-      </c>
-      <c r="G12" s="4">
-        <v>-4.8E-10</v>
-      </c>
-      <c r="H12" s="4">
-        <v>-3.1000000000000002E-10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>-3.7999999999999998E-10</v>
-      </c>
-      <c r="J12" s="4">
-        <v>-5.3000000000000003E-10</v>
-      </c>
-      <c r="K12" s="7">
-        <v>-7.4000000000000003E-11</v>
-      </c>
-      <c r="L12" s="7">
-        <v>-1.5E-10</v>
-      </c>
-      <c r="M12" s="4">
-        <v>-6.6E-10</v>
-      </c>
-      <c r="N12" s="4">
-        <v>-3.4000000000000001E-10</v>
-      </c>
-      <c r="O12" s="7">
-        <v>-5.1694999999999996E-10</v>
-      </c>
-      <c r="P12" s="7">
-        <v>-1.1522E-10</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>-2.5027000000000001E-10</v>
-      </c>
-      <c r="U12" s="4">
+        <v>-45</v>
+      </c>
+      <c r="C12" s="36">
+        <v>-5.5312000000000005E-10</v>
+      </c>
+      <c r="D12" s="37">
+        <v>-3.0298000000000002E-10</v>
+      </c>
+      <c r="E12" s="37">
+        <v>-4.9031000000000004E-10</v>
+      </c>
+      <c r="F12" s="38">
+        <v>-6.2152000000000004E-11</v>
+      </c>
+      <c r="G12" s="38">
+        <v>-7.2E-10</v>
+      </c>
+      <c r="H12" s="38">
+        <v>-4.7000000000000003E-10</v>
+      </c>
+      <c r="I12" s="37">
+        <v>-5.6000000000000003E-10</v>
+      </c>
+      <c r="J12" s="38">
+        <v>-8.0000000000000003E-10</v>
+      </c>
+      <c r="K12" s="37">
+        <v>-1.0999999999999999E-10</v>
+      </c>
+      <c r="L12" s="37">
+        <v>-2.3000000000000001E-10</v>
+      </c>
+      <c r="M12" s="38">
+        <v>-9.900000000000001E-10</v>
+      </c>
+      <c r="N12" s="38">
+        <v>-5.1E-10</v>
+      </c>
+      <c r="O12" s="37">
+        <v>-7.6926999999999997E-10</v>
+      </c>
+      <c r="P12" s="37">
+        <v>-1.6757E-10</v>
+      </c>
+      <c r="Q12" s="39">
+        <v>-3.8639E-10</v>
+      </c>
+      <c r="U12" s="64">
         <f t="shared" si="0"/>
-        <v>-3.1522353333333333E-10</v>
-      </c>
-      <c r="V12" s="4">
+        <v>-4.7478613333333335E-10</v>
+      </c>
+      <c r="V12" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="38">
         <f t="shared" si="2"/>
-        <v>4.6708169262108497E-11</v>
-      </c>
-      <c r="X12" s="4">
+        <v>6.9963615231664839E-11</v>
+      </c>
+      <c r="X12" s="39">
         <f t="shared" si="3"/>
-        <v>9.1546329537533424E-11</v>
+        <v>1.3712616608228099E-10</v>
       </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
@@ -6624,70 +6900,70 @@
       <c r="AD12" s="7"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="B13" s="30">
         <f t="shared" si="4"/>
-        <v>-15</v>
-      </c>
-      <c r="C13" s="7">
-        <v>-1.7834E-10</v>
-      </c>
-      <c r="D13" s="7">
-        <v>-9.8847E-11</v>
-      </c>
-      <c r="E13" s="7">
-        <v>-1.6225000000000001E-10</v>
-      </c>
-      <c r="F13" s="4">
-        <v>-2.0657E-11</v>
-      </c>
-      <c r="G13" s="4">
-        <v>-2.4E-10</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-1.5999999999999999E-10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>-1.8999999999999999E-10</v>
-      </c>
-      <c r="J13" s="4">
-        <v>-2.7E-10</v>
-      </c>
-      <c r="K13" s="7">
-        <v>-3.5000000000000002E-11</v>
-      </c>
-      <c r="L13" s="7">
-        <v>-7.5E-11</v>
-      </c>
-      <c r="M13" s="4">
-        <v>-3.3E-10</v>
-      </c>
-      <c r="N13" s="4">
-        <v>-1.7000000000000001E-10</v>
-      </c>
-      <c r="O13" s="7">
-        <v>-2.6242000000000001E-10</v>
-      </c>
-      <c r="P13" s="7">
-        <v>-5.8250000000000006E-11</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>-1.2459000000000001E-10</v>
-      </c>
-      <c r="U13" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C13" s="36">
+        <v>-3.6076999999999999E-10</v>
+      </c>
+      <c r="D13" s="37">
+        <v>-1.9988000000000001E-10</v>
+      </c>
+      <c r="E13" s="37">
+        <v>-3.2054000000000001E-10</v>
+      </c>
+      <c r="F13" s="38">
+        <v>-4.0723000000000002E-11</v>
+      </c>
+      <c r="G13" s="38">
+        <v>-4.8E-10</v>
+      </c>
+      <c r="H13" s="38">
+        <v>-3.1000000000000002E-10</v>
+      </c>
+      <c r="I13" s="37">
+        <v>-3.7999999999999998E-10</v>
+      </c>
+      <c r="J13" s="38">
+        <v>-5.3000000000000003E-10</v>
+      </c>
+      <c r="K13" s="37">
+        <v>-7.4000000000000003E-11</v>
+      </c>
+      <c r="L13" s="37">
+        <v>-1.5E-10</v>
+      </c>
+      <c r="M13" s="38">
+        <v>-6.6E-10</v>
+      </c>
+      <c r="N13" s="38">
+        <v>-3.4000000000000001E-10</v>
+      </c>
+      <c r="O13" s="37">
+        <v>-5.1694999999999996E-10</v>
+      </c>
+      <c r="P13" s="37">
+        <v>-1.1522E-10</v>
+      </c>
+      <c r="Q13" s="39">
+        <v>-2.5027000000000001E-10</v>
+      </c>
+      <c r="U13" s="64">
         <f t="shared" si="0"/>
-        <v>-1.5835693333333333E-10</v>
-      </c>
-      <c r="V13" s="4">
+        <v>-3.1522353333333333E-10</v>
+      </c>
+      <c r="V13" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="38">
         <f t="shared" si="2"/>
-        <v>2.3584081711524679E-11</v>
-      </c>
-      <c r="X13" s="4">
+        <v>4.6708169262108497E-11</v>
+      </c>
+      <c r="X13" s="39">
         <f t="shared" si="3"/>
-        <v>4.6223950763038115E-11</v>
+        <v>9.1546329537533424E-11</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
@@ -6695,70 +6971,70 @@
       <c r="AD13" s="7"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>5.8732999999999998E-13</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4.9497999999999998E-13</v>
-      </c>
-      <c r="E14" s="7">
-        <v>9.7049000000000004E-15</v>
-      </c>
-      <c r="F14" s="4">
-        <v>3.5902999999999999E-13</v>
-      </c>
-      <c r="G14" s="4">
-        <v>-1.1E-13</v>
-      </c>
-      <c r="H14" s="4">
-        <v>-3.5999999999999998E-13</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3.5999999999999998E-13</v>
-      </c>
-      <c r="J14" s="4">
-        <v>-9.4000000000000003E-13</v>
-      </c>
-      <c r="K14" s="7">
-        <v>-1.1999999999999999E-13</v>
-      </c>
-      <c r="L14" s="7">
-        <v>2.2E-13</v>
-      </c>
-      <c r="M14" s="4">
-        <v>-3.5000000000000002E-13</v>
-      </c>
-      <c r="N14" s="4">
-        <v>2.0000000000000001E-13</v>
-      </c>
-      <c r="O14" s="7">
-        <v>3.9936999999999999E-13</v>
-      </c>
-      <c r="P14" s="7">
-        <v>2.6528000000000001E-13</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>1.5652999999999999E-13</v>
-      </c>
-      <c r="U14" s="4">
+        <v>-15</v>
+      </c>
+      <c r="C14" s="36">
+        <v>-1.7834E-10</v>
+      </c>
+      <c r="D14" s="37">
+        <v>-9.8847E-11</v>
+      </c>
+      <c r="E14" s="37">
+        <v>-1.6225000000000001E-10</v>
+      </c>
+      <c r="F14" s="38">
+        <v>-2.0657E-11</v>
+      </c>
+      <c r="G14" s="38">
+        <v>-2.4E-10</v>
+      </c>
+      <c r="H14" s="38">
+        <v>-1.5999999999999999E-10</v>
+      </c>
+      <c r="I14" s="37">
+        <v>-1.8999999999999999E-10</v>
+      </c>
+      <c r="J14" s="38">
+        <v>-2.7E-10</v>
+      </c>
+      <c r="K14" s="37">
+        <v>-3.5000000000000002E-11</v>
+      </c>
+      <c r="L14" s="37">
+        <v>-7.5E-11</v>
+      </c>
+      <c r="M14" s="38">
+        <v>-3.3E-10</v>
+      </c>
+      <c r="N14" s="38">
+        <v>-1.7000000000000001E-10</v>
+      </c>
+      <c r="O14" s="37">
+        <v>-2.6242000000000001E-10</v>
+      </c>
+      <c r="P14" s="37">
+        <v>-5.8250000000000006E-11</v>
+      </c>
+      <c r="Q14" s="39">
+        <v>-1.2459000000000001E-10</v>
+      </c>
+      <c r="U14" s="64">
         <f t="shared" si="0"/>
-        <v>7.8148326666666665E-14</v>
-      </c>
-      <c r="V14" s="4">
+        <v>-1.5835693333333333E-10</v>
+      </c>
+      <c r="V14" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="38">
         <f t="shared" si="2"/>
-        <v>1.0378371642787222E-13</v>
-      </c>
-      <c r="X14" s="4">
+        <v>2.3584081711524679E-11</v>
+      </c>
+      <c r="X14" s="39">
         <f t="shared" si="3"/>
-        <v>2.0341234638034746E-13</v>
+        <v>4.6223950763038115E-11</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
@@ -6766,70 +7042,70 @@
       <c r="AD14" s="7"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="B15" s="30">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.8381999999999999E-10</v>
-      </c>
-      <c r="D15" s="7">
-        <v>9.9861E-11</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1.7206E-10</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2.1935E-11</v>
-      </c>
-      <c r="G15" s="4">
-        <v>2.4E-10</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1.5999999999999999E-10</v>
-      </c>
-      <c r="I15" s="7">
-        <v>2.1E-10</v>
-      </c>
-      <c r="J15" s="4">
-        <v>2.8999999999999998E-10</v>
-      </c>
-      <c r="K15" s="7">
-        <v>3.5000000000000002E-11</v>
-      </c>
-      <c r="L15" s="7">
-        <v>7.9999999999999995E-11</v>
-      </c>
-      <c r="M15" s="4">
-        <v>3.4000000000000001E-10</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1.8E-10</v>
-      </c>
-      <c r="O15" s="7">
-        <v>2.7725999999999998E-10</v>
-      </c>
-      <c r="P15" s="7">
-        <v>6.1995000000000002E-11</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>1.3246E-10</v>
-      </c>
-      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="36">
+        <v>5.8732999999999998E-13</v>
+      </c>
+      <c r="D15" s="37">
+        <v>4.9497999999999998E-13</v>
+      </c>
+      <c r="E15" s="37">
+        <v>9.7049000000000004E-15</v>
+      </c>
+      <c r="F15" s="38">
+        <v>3.5902999999999999E-13</v>
+      </c>
+      <c r="G15" s="38">
+        <v>-1.1E-13</v>
+      </c>
+      <c r="H15" s="38">
+        <v>-3.5999999999999998E-13</v>
+      </c>
+      <c r="I15" s="37">
+        <v>3.5999999999999998E-13</v>
+      </c>
+      <c r="J15" s="38">
+        <v>-9.4000000000000003E-13</v>
+      </c>
+      <c r="K15" s="37">
+        <v>-1.1999999999999999E-13</v>
+      </c>
+      <c r="L15" s="37">
+        <v>2.2E-13</v>
+      </c>
+      <c r="M15" s="38">
+        <v>-3.5000000000000002E-13</v>
+      </c>
+      <c r="N15" s="38">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="O15" s="37">
+        <v>3.9936999999999999E-13</v>
+      </c>
+      <c r="P15" s="37">
+        <v>2.6528000000000001E-13</v>
+      </c>
+      <c r="Q15" s="39">
+        <v>1.5652999999999999E-13</v>
+      </c>
+      <c r="U15" s="64">
         <f t="shared" si="0"/>
-        <v>1.6562606666666667E-10</v>
-      </c>
-      <c r="V15" s="4">
+        <v>7.8148326666666665E-14</v>
+      </c>
+      <c r="V15" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="38">
         <f t="shared" si="2"/>
-        <v>2.4655244721572625E-11</v>
-      </c>
-      <c r="X15" s="4">
+        <v>1.0378371642787222E-13</v>
+      </c>
+      <c r="X15" s="39">
         <f t="shared" si="3"/>
-        <v>4.8323391684303606E-11</v>
+        <v>2.0341234638034746E-13</v>
       </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
@@ -6837,70 +7113,70 @@
       <c r="AD15" s="7"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="B16" s="30">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3.8489999999999998E-10</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2.0617E-10</v>
-      </c>
-      <c r="E16" s="7">
-        <v>3.6298000000000002E-10</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4.6720999999999997E-11</v>
-      </c>
-      <c r="G16" s="4">
-        <v>4.8999999999999996E-10</v>
-      </c>
-      <c r="H16" s="4">
-        <v>3.3E-10</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4.5E-10</v>
-      </c>
-      <c r="J16" s="4">
-        <v>6.2000000000000003E-10</v>
-      </c>
-      <c r="K16" s="7">
-        <v>7.5E-11</v>
-      </c>
-      <c r="L16" s="7">
-        <v>1.7000000000000001E-10</v>
-      </c>
-      <c r="M16" s="4">
-        <v>7.1000000000000003E-10</v>
-      </c>
-      <c r="N16" s="4">
-        <v>3.6E-10</v>
-      </c>
-      <c r="O16" s="7">
-        <v>5.6710000000000004E-10</v>
-      </c>
-      <c r="P16" s="7">
-        <v>1.3255E-10</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>2.8652999999999999E-10</v>
-      </c>
-      <c r="U16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="36">
+        <v>1.8381999999999999E-10</v>
+      </c>
+      <c r="D16" s="37">
+        <v>9.9861E-11</v>
+      </c>
+      <c r="E16" s="37">
+        <v>1.7206E-10</v>
+      </c>
+      <c r="F16" s="38">
+        <v>2.1935E-11</v>
+      </c>
+      <c r="G16" s="38">
+        <v>2.4E-10</v>
+      </c>
+      <c r="H16" s="38">
+        <v>1.5999999999999999E-10</v>
+      </c>
+      <c r="I16" s="37">
+        <v>2.1E-10</v>
+      </c>
+      <c r="J16" s="38">
+        <v>2.8999999999999998E-10</v>
+      </c>
+      <c r="K16" s="37">
+        <v>3.5000000000000002E-11</v>
+      </c>
+      <c r="L16" s="37">
+        <v>7.9999999999999995E-11</v>
+      </c>
+      <c r="M16" s="38">
+        <v>3.4000000000000001E-10</v>
+      </c>
+      <c r="N16" s="38">
+        <v>1.8E-10</v>
+      </c>
+      <c r="O16" s="37">
+        <v>2.7725999999999998E-10</v>
+      </c>
+      <c r="P16" s="37">
+        <v>6.1995000000000002E-11</v>
+      </c>
+      <c r="Q16" s="39">
+        <v>1.3246E-10</v>
+      </c>
+      <c r="U16" s="64">
         <f t="shared" si="0"/>
-        <v>3.4613006666666663E-10</v>
-      </c>
-      <c r="V16" s="4">
+        <v>1.6562606666666667E-10</v>
+      </c>
+      <c r="V16" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="38">
         <f t="shared" si="2"/>
-        <v>5.1311254626424571E-11</v>
-      </c>
-      <c r="X16" s="4">
+        <v>2.4655244721572625E-11</v>
+      </c>
+      <c r="X16" s="39">
         <f t="shared" si="3"/>
-        <v>1.0056821106935636E-10</v>
+        <v>4.8323391684303606E-11</v>
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
@@ -6908,70 +7184,70 @@
       <c r="AD16" s="7"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="30">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>6.0532000000000004E-10</v>
-      </c>
-      <c r="D17" s="7">
-        <v>3.2315000000000002E-10</v>
-      </c>
-      <c r="E17" s="7">
-        <v>5.7963999999999998E-10</v>
-      </c>
-      <c r="F17" s="4">
-        <v>7.6979000000000006E-11</v>
-      </c>
-      <c r="G17" s="4">
-        <v>7.5999999999999996E-10</v>
-      </c>
-      <c r="H17" s="4">
-        <v>5.1E-10</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7.4000000000000003E-10</v>
-      </c>
-      <c r="J17" s="4">
-        <v>9.900000000000001E-10</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1.2E-10</v>
-      </c>
-      <c r="L17" s="7">
-        <v>2.8000000000000002E-10</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1.0999999999999999E-9</v>
-      </c>
-      <c r="N17" s="4">
-        <v>5.6000000000000003E-10</v>
-      </c>
-      <c r="O17" s="7">
-        <v>8.8528999999999995E-10</v>
-      </c>
-      <c r="P17" s="7">
-        <v>2.2081999999999999E-10</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>4.7218000000000002E-10</v>
-      </c>
-      <c r="U17" s="4">
+        <v>30</v>
+      </c>
+      <c r="C17" s="36">
+        <v>3.8489999999999998E-10</v>
+      </c>
+      <c r="D17" s="37">
+        <v>2.0617E-10</v>
+      </c>
+      <c r="E17" s="37">
+        <v>3.6298000000000002E-10</v>
+      </c>
+      <c r="F17" s="38">
+        <v>4.6720999999999997E-11</v>
+      </c>
+      <c r="G17" s="38">
+        <v>4.8999999999999996E-10</v>
+      </c>
+      <c r="H17" s="38">
+        <v>3.3E-10</v>
+      </c>
+      <c r="I17" s="37">
+        <v>4.5E-10</v>
+      </c>
+      <c r="J17" s="38">
+        <v>6.2000000000000003E-10</v>
+      </c>
+      <c r="K17" s="37">
+        <v>7.5E-11</v>
+      </c>
+      <c r="L17" s="37">
+        <v>1.7000000000000001E-10</v>
+      </c>
+      <c r="M17" s="38">
+        <v>7.1000000000000003E-10</v>
+      </c>
+      <c r="N17" s="38">
+        <v>3.6E-10</v>
+      </c>
+      <c r="O17" s="37">
+        <v>5.6710000000000004E-10</v>
+      </c>
+      <c r="P17" s="37">
+        <v>1.3255E-10</v>
+      </c>
+      <c r="Q17" s="39">
+        <v>2.8652999999999999E-10</v>
+      </c>
+      <c r="U17" s="64">
         <f t="shared" si="0"/>
-        <v>5.4822526666666665E-10</v>
-      </c>
-      <c r="V17" s="4">
+        <v>3.4613006666666663E-10</v>
+      </c>
+      <c r="V17" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="38">
         <f t="shared" si="2"/>
-        <v>7.9932596148103885E-11</v>
-      </c>
-      <c r="X17" s="4">
+        <v>5.1311254626424571E-11</v>
+      </c>
+      <c r="X17" s="39">
         <f t="shared" si="3"/>
-        <v>1.5666500964106864E-10</v>
+        <v>1.0056821106935636E-10</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
@@ -6979,70 +7255,70 @@
       <c r="AD17" s="7"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+      <c r="B18" s="30">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="C18" s="7">
-        <v>8.5702999999999999E-10</v>
-      </c>
-      <c r="D18" s="7">
-        <v>4.4730999999999998E-10</v>
-      </c>
-      <c r="E18" s="7">
-        <v>8.3270000000000003E-10</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1.1423E-10</v>
-      </c>
-      <c r="G18" s="4">
+        <v>45</v>
+      </c>
+      <c r="C18" s="36">
+        <v>6.0532000000000004E-10</v>
+      </c>
+      <c r="D18" s="37">
+        <v>3.2315000000000002E-10</v>
+      </c>
+      <c r="E18" s="37">
+        <v>5.7963999999999998E-10</v>
+      </c>
+      <c r="F18" s="38">
+        <v>7.6979000000000006E-11</v>
+      </c>
+      <c r="G18" s="38">
+        <v>7.5999999999999996E-10</v>
+      </c>
+      <c r="H18" s="38">
+        <v>5.1E-10</v>
+      </c>
+      <c r="I18" s="37">
+        <v>7.4000000000000003E-10</v>
+      </c>
+      <c r="J18" s="38">
+        <v>9.900000000000001E-10</v>
+      </c>
+      <c r="K18" s="37">
+        <v>1.2E-10</v>
+      </c>
+      <c r="L18" s="37">
+        <v>2.8000000000000002E-10</v>
+      </c>
+      <c r="M18" s="38">
         <v>1.0999999999999999E-9</v>
       </c>
-      <c r="H18" s="4">
-        <v>6.9999999999999996E-10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1.0999999999999999E-9</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1.3999999999999999E-9</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1.8E-10</v>
-      </c>
-      <c r="L18" s="7">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1.5E-9</v>
-      </c>
-      <c r="N18" s="4">
-        <v>7.7000000000000003E-10</v>
-      </c>
-      <c r="O18" s="7">
-        <v>1.2297E-9</v>
-      </c>
-      <c r="P18" s="7">
-        <v>3.2189000000000001E-10</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>6.9984000000000004E-10</v>
-      </c>
-      <c r="U18" s="4">
+      <c r="N18" s="38">
+        <v>5.6000000000000003E-10</v>
+      </c>
+      <c r="O18" s="37">
+        <v>8.8528999999999995E-10</v>
+      </c>
+      <c r="P18" s="37">
+        <v>2.2081999999999999E-10</v>
+      </c>
+      <c r="Q18" s="39">
+        <v>4.7218000000000002E-10</v>
+      </c>
+      <c r="U18" s="64">
         <f t="shared" si="0"/>
-        <v>7.7684666666666667E-10</v>
-      </c>
-      <c r="V18" s="4">
+        <v>5.4822526666666665E-10</v>
+      </c>
+      <c r="V18" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="38">
         <f t="shared" si="2"/>
-        <v>1.11259340430437E-10</v>
-      </c>
-      <c r="X18" s="4">
+        <v>7.9932596148103885E-11</v>
+      </c>
+      <c r="X18" s="39">
         <f t="shared" si="3"/>
-        <v>2.1806430018733759E-10</v>
+        <v>1.5666500964106864E-10</v>
       </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
@@ -7050,70 +7326,70 @@
       <c r="AD18" s="7"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
+      <c r="B19" s="30">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1.142E-9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5.9310000000000005E-10</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1.1242999999999999E-9</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1.6363999999999999E-10</v>
-      </c>
-      <c r="G19" s="4">
+        <v>60</v>
+      </c>
+      <c r="C19" s="36">
+        <v>8.5702999999999999E-10</v>
+      </c>
+      <c r="D19" s="37">
+        <v>4.4730999999999998E-10</v>
+      </c>
+      <c r="E19" s="37">
+        <v>8.3270000000000003E-10</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1.1423E-10</v>
+      </c>
+      <c r="G19" s="38">
+        <v>1.0999999999999999E-9</v>
+      </c>
+      <c r="H19" s="38">
+        <v>6.9999999999999996E-10</v>
+      </c>
+      <c r="I19" s="37">
+        <v>1.0999999999999999E-9</v>
+      </c>
+      <c r="J19" s="38">
         <v>1.3999999999999999E-9</v>
       </c>
-      <c r="H19" s="4">
-        <v>8.9000000000000003E-10</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="K19" s="37">
+        <v>1.8E-10</v>
+      </c>
+      <c r="L19" s="37">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="M19" s="38">
         <v>1.5E-9</v>
       </c>
-      <c r="J19" s="4">
-        <v>1.9000000000000001E-9</v>
-      </c>
-      <c r="K19" s="7">
-        <v>2.5000000000000002E-10</v>
-      </c>
-      <c r="L19" s="7">
-        <v>5.4999999999999996E-10</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1.9000000000000001E-9</v>
-      </c>
-      <c r="N19" s="4">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="O19" s="7">
-        <v>1.6291999999999999E-9</v>
-      </c>
-      <c r="P19" s="7">
-        <v>4.3820999999999998E-10</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>9.7859999999999991E-10</v>
-      </c>
-      <c r="U19" s="4">
+      <c r="N19" s="38">
+        <v>7.7000000000000003E-10</v>
+      </c>
+      <c r="O19" s="37">
+        <v>1.2297E-9</v>
+      </c>
+      <c r="P19" s="37">
+        <v>3.2189000000000001E-10</v>
+      </c>
+      <c r="Q19" s="39">
+        <v>6.9984000000000004E-10</v>
+      </c>
+      <c r="U19" s="64">
         <f t="shared" si="0"/>
-        <v>1.0306033333333334E-9</v>
-      </c>
-      <c r="V19" s="4">
+        <v>7.7684666666666667E-10</v>
+      </c>
+      <c r="V19" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="38">
         <f t="shared" si="2"/>
-        <v>1.4484294110606138E-10</v>
-      </c>
-      <c r="X19" s="4">
+        <v>1.11259340430437E-10</v>
+      </c>
+      <c r="X19" s="39">
         <f t="shared" si="3"/>
-        <v>2.8388694798273639E-10</v>
+        <v>2.1806430018733759E-10</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -7121,69 +7397,70 @@
       <c r="AD19" s="7"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>90</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1.4632000000000001E-9</v>
-      </c>
-      <c r="D20" s="7">
-        <v>7.4598000000000004E-10</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1.4562E-9</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2.2456E-10</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1.6999999999999999E-9</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1.0999999999999999E-9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2.1000000000000002E-9</v>
-      </c>
-      <c r="J20" s="4">
-        <v>2.5000000000000001E-9</v>
-      </c>
-      <c r="K20" s="7">
-        <v>3.4000000000000001E-10</v>
-      </c>
-      <c r="L20" s="7">
-        <v>7.2E-10</v>
-      </c>
-      <c r="M20" s="4">
-        <v>2.4E-9</v>
-      </c>
-      <c r="N20" s="4">
-        <v>1.3000000000000001E-9</v>
-      </c>
-      <c r="O20" s="7">
-        <v>2.0733999999999999E-9</v>
-      </c>
-      <c r="P20" s="7">
-        <v>5.7259999999999997E-10</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>1.3203999999999999E-9</v>
-      </c>
-      <c r="U20" s="4">
-        <f t="shared" ref="U20:U21" si="5">AVERAGE(C20:S20)</f>
-        <v>1.3344226666666668E-9</v>
-      </c>
-      <c r="V20" s="4">
-        <f t="shared" ref="V20:V21" si="6">COUNT(C20:S20)</f>
+      <c r="B20" s="30">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="C20" s="36">
+        <v>1.142E-9</v>
+      </c>
+      <c r="D20" s="37">
+        <v>5.9310000000000005E-10</v>
+      </c>
+      <c r="E20" s="37">
+        <v>1.1242999999999999E-9</v>
+      </c>
+      <c r="F20" s="38">
+        <v>1.6363999999999999E-10</v>
+      </c>
+      <c r="G20" s="38">
+        <v>1.3999999999999999E-9</v>
+      </c>
+      <c r="H20" s="38">
+        <v>8.9000000000000003E-10</v>
+      </c>
+      <c r="I20" s="37">
+        <v>1.5E-9</v>
+      </c>
+      <c r="J20" s="38">
+        <v>1.9000000000000001E-9</v>
+      </c>
+      <c r="K20" s="37">
+        <v>2.5000000000000002E-10</v>
+      </c>
+      <c r="L20" s="37">
+        <v>5.4999999999999996E-10</v>
+      </c>
+      <c r="M20" s="38">
+        <v>1.9000000000000001E-9</v>
+      </c>
+      <c r="N20" s="38">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="O20" s="37">
+        <v>1.6291999999999999E-9</v>
+      </c>
+      <c r="P20" s="37">
+        <v>4.3820999999999998E-10</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>9.7859999999999991E-10</v>
+      </c>
+      <c r="U20" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0306033333333334E-9</v>
+      </c>
+      <c r="V20" s="38">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="W20" s="4">
-        <f t="shared" ref="W20:W21" si="7">(STDEV(C20:S20))/SQRT(V20)</f>
-        <v>1.873682739101353E-10</v>
-      </c>
-      <c r="X20" s="4">
-        <f t="shared" ref="X20:X21" si="8">CONFIDENCE(0.05,(STDEV(C20:S20)),V20)</f>
-        <v>3.6723506870930095E-10</v>
+      <c r="W20" s="38">
+        <f t="shared" si="2"/>
+        <v>1.4484294110606138E-10</v>
+      </c>
+      <c r="X20" s="39">
+        <f t="shared" si="3"/>
+        <v>2.8388694798273639E-10</v>
       </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
@@ -7191,69 +7468,69 @@
       <c r="AD20" s="7"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>105</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1.8336E-9</v>
-      </c>
-      <c r="D21" s="7">
-        <v>9.3460999999999994E-10</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1.8408000000000001E-9</v>
-      </c>
-      <c r="F21" s="4">
-        <v>3.0645000000000001E-10</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="B21" s="30">
+        <v>90</v>
+      </c>
+      <c r="C21" s="36">
+        <v>1.4632000000000001E-9</v>
+      </c>
+      <c r="D21" s="37">
+        <v>7.4598000000000004E-10</v>
+      </c>
+      <c r="E21" s="37">
+        <v>1.4562E-9</v>
+      </c>
+      <c r="F21" s="38">
+        <v>2.2456E-10</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1.6999999999999999E-9</v>
+      </c>
+      <c r="H21" s="38">
+        <v>1.0999999999999999E-9</v>
+      </c>
+      <c r="I21" s="37">
         <v>2.1000000000000002E-9</v>
       </c>
-      <c r="H21" s="4">
+      <c r="J21" s="38">
+        <v>2.5000000000000001E-9</v>
+      </c>
+      <c r="K21" s="37">
+        <v>3.4000000000000001E-10</v>
+      </c>
+      <c r="L21" s="37">
+        <v>7.2E-10</v>
+      </c>
+      <c r="M21" s="38">
+        <v>2.4E-9</v>
+      </c>
+      <c r="N21" s="38">
         <v>1.3000000000000001E-9</v>
       </c>
-      <c r="I21" s="7">
-        <v>2.7999999999999998E-9</v>
-      </c>
-      <c r="J21" s="4">
-        <v>3.2000000000000001E-9</v>
-      </c>
-      <c r="K21" s="7">
-        <v>4.6000000000000001E-10</v>
-      </c>
-      <c r="L21" s="7">
-        <v>9.2999999999999999E-10</v>
-      </c>
-      <c r="M21" s="4">
-        <v>2.8999999999999999E-9</v>
-      </c>
-      <c r="N21" s="4">
-        <v>1.5E-9</v>
-      </c>
-      <c r="O21" s="7">
-        <v>2.5866000000000001E-9</v>
-      </c>
-      <c r="P21" s="7">
-        <v>7.3066000000000004E-10</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>1.7454E-9</v>
-      </c>
-      <c r="U21" s="4">
-        <f t="shared" si="5"/>
-        <v>1.6778746666666667E-9</v>
-      </c>
-      <c r="V21" s="4">
-        <f t="shared" si="6"/>
+      <c r="O21" s="37">
+        <v>2.0733999999999999E-9</v>
+      </c>
+      <c r="P21" s="37">
+        <v>5.7259999999999997E-10</v>
+      </c>
+      <c r="Q21" s="39">
+        <v>1.3203999999999999E-9</v>
+      </c>
+      <c r="U21" s="64">
+        <f t="shared" ref="U21:U22" si="5">AVERAGE(C21:S21)</f>
+        <v>1.3344226666666668E-9</v>
+      </c>
+      <c r="V21" s="38">
+        <f t="shared" ref="V21:V22" si="6">COUNT(C21:S21)</f>
         <v>15</v>
       </c>
-      <c r="W21" s="4">
-        <f t="shared" si="7"/>
-        <v>2.3580030750993049E-10</v>
-      </c>
-      <c r="X21" s="4">
-        <f t="shared" si="8"/>
-        <v>4.6216011026293327E-10</v>
+      <c r="W21" s="38">
+        <f t="shared" ref="W21:W22" si="7">(STDEV(C21:S21))/SQRT(V21)</f>
+        <v>1.873682739101353E-10</v>
+      </c>
+      <c r="X21" s="39">
+        <f t="shared" ref="X21:X22" si="8">CONFIDENCE(0.05,(STDEV(C21:S21)),V21)</f>
+        <v>3.6723506870930095E-10</v>
       </c>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
@@ -7261,28 +7538,83 @@
       <c r="AD21" s="7"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B22" s="31">
+        <v>105</v>
+      </c>
+      <c r="C22" s="40">
+        <v>1.8336E-9</v>
+      </c>
+      <c r="D22" s="41">
+        <v>9.3460999999999994E-10</v>
+      </c>
+      <c r="E22" s="41">
+        <v>1.8408000000000001E-9</v>
+      </c>
+      <c r="F22" s="42">
+        <v>3.0645000000000001E-10</v>
+      </c>
+      <c r="G22" s="42">
+        <v>2.1000000000000002E-9</v>
+      </c>
+      <c r="H22" s="42">
+        <v>1.3000000000000001E-9</v>
+      </c>
+      <c r="I22" s="41">
+        <v>2.7999999999999998E-9</v>
+      </c>
+      <c r="J22" s="42">
+        <v>3.2000000000000001E-9</v>
+      </c>
+      <c r="K22" s="41">
+        <v>4.6000000000000001E-10</v>
+      </c>
+      <c r="L22" s="41">
+        <v>9.2999999999999999E-10</v>
+      </c>
+      <c r="M22" s="42">
+        <v>2.8999999999999999E-9</v>
+      </c>
+      <c r="N22" s="42">
+        <v>1.5E-9</v>
+      </c>
+      <c r="O22" s="41">
+        <v>2.5866000000000001E-9</v>
+      </c>
+      <c r="P22" s="41">
+        <v>7.3066000000000004E-10</v>
+      </c>
+      <c r="Q22" s="43">
+        <v>1.7454E-9</v>
+      </c>
+      <c r="U22" s="65">
+        <f t="shared" si="5"/>
+        <v>1.6778746666666667E-9</v>
+      </c>
+      <c r="V22" s="42">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="W22" s="42">
+        <f t="shared" si="7"/>
+        <v>2.3580030750993049E-10</v>
+      </c>
+      <c r="X22" s="43">
+        <f t="shared" si="8"/>
+        <v>4.6216011026293327E-10</v>
+      </c>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="X23" s="6"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="X24" s="6"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
@@ -7296,8 +7628,12 @@
       <c r="H25" s="7"/>
       <c r="M25" s="7"/>
       <c r="O25" s="7"/>
+      <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
@@ -7308,6 +7644,7 @@
       <c r="M26" s="7"/>
       <c r="O26" s="7"/>
       <c r="R26" s="7"/>
+      <c r="AA26" s="7"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
@@ -7460,7 +7797,17 @@
       <c r="R41" s="7"/>
     </row>
     <row r="42" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="X42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="X43" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7475,7 +7822,7 @@
   <dimension ref="A1:AG58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7497,82 +7844,82 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AA2" s="2"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>8</v>
+      <c r="A4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="A6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="15">
         <f>L85P!C2</f>
         <v>352962</v>
       </c>
-      <c r="C6" s="16">
-        <f>L85P!F4*-1</f>
+      <c r="C6" s="15">
+        <f>L85P!F5*-1</f>
         <v>3.6929000000000002E-10</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="16">
         <f>G82R!C2</f>
         <v>951115</v>
       </c>
-      <c r="G6" s="17">
-        <f>G82R!C4*-1</f>
+      <c r="G6" s="16">
+        <f>G82R!C5*-1</f>
         <v>1.0604E-9</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="15">
         <f>L85P!D2</f>
         <v>1469094</v>
       </c>
-      <c r="C7" s="17">
-        <f>L85P!C4*-1</f>
+      <c r="C7" s="16">
+        <f>L85P!C5*-1</f>
         <v>2.5814999999999998E-9</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="E7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="15">
         <f>G82R!E2</f>
         <v>2256082</v>
       </c>
-      <c r="G7" s="17">
-        <f>G82R!E4*-1</f>
+      <c r="G7" s="16">
+        <f>G82R!E5*-1</f>
         <v>1.6027000000000001E-9</v>
       </c>
       <c r="R7" s="8"/>
@@ -7582,27 +7929,27 @@
       <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15">
         <f>L85P!E2</f>
         <v>858195</v>
       </c>
-      <c r="C8" s="17">
-        <f>L85P!D4*-1</f>
+      <c r="C8" s="16">
+        <f>L85P!D5*-1</f>
         <v>1.3176000000000001E-9</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="E8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="15">
         <f>G82R!D2</f>
         <v>1006790</v>
       </c>
-      <c r="G8" s="16">
-        <f>G82R!D4*-1</f>
+      <c r="G8" s="15">
+        <f>G82R!D5*-1</f>
         <v>3.3241999999999997E-10</v>
       </c>
       <c r="R8" s="8"/>
@@ -7612,31 +7959,31 @@
       <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="16">
+      <c r="A9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="15">
         <f>L85P!F2</f>
         <v>979333</v>
       </c>
-      <c r="C9" s="17">
-        <f>L85P!E4*-1</f>
+      <c r="C9" s="16">
+        <f>L85P!E5*-1</f>
         <v>2.3499999999999999E-9</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="E9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="17">
         <f>G82R!G2</f>
         <v>641419</v>
       </c>
-      <c r="G9" s="21">
-        <f>G82R!G4*-1</f>
+      <c r="G9" s="20">
+        <f>G82R!G5*-1</f>
         <v>5.1458999999999998E-10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="4"/>
@@ -7645,26 +7992,26 @@
       <c r="AG9" s="8"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="16">
+      <c r="A10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="15">
         <f>L85P!G2</f>
         <v>1464056</v>
       </c>
-      <c r="C10" s="16">
-        <f>L85P!G4*-1</f>
+      <c r="C10" s="15">
+        <f>L85P!G5*-1</f>
         <v>2.7000000000000002E-9</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="E10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="17">
         <f>G82R!H2</f>
         <v>1526986</v>
       </c>
-      <c r="G10" s="21">
-        <f>G82R!H4*-1</f>
+      <c r="G10" s="20">
+        <f>G82R!H5*-1</f>
         <v>1.5448000000000001E-9</v>
       </c>
       <c r="R10" s="8"/>
@@ -7674,27 +8021,27 @@
       <c r="AG10" s="8"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="17">
         <f>L85P!J2</f>
         <v>1351188</v>
       </c>
-      <c r="C11" s="18">
-        <f>L85P!J4*-1</f>
+      <c r="C11" s="17">
+        <f>L85P!J5*-1</f>
         <v>3.9000000000000002E-9</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="18">
+      <c r="E11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="17">
         <f>G82R!I2</f>
         <v>1078604</v>
       </c>
-      <c r="G11" s="17">
-        <f>G82R!I4*-1</f>
+      <c r="G11" s="16">
+        <f>G82R!I5*-1</f>
         <v>1.7042E-9</v>
       </c>
       <c r="P11" s="4"/>
@@ -7704,54 +8051,54 @@
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="16">
+      <c r="A12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="15">
         <f>L85P!I2</f>
         <v>1516564</v>
       </c>
-      <c r="C12" s="17">
-        <f>L85P!I4*-1</f>
+      <c r="C12" s="16">
+        <f>L85P!I5*-1</f>
         <v>2.1000000000000002E-9</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="E12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="15">
         <f>G82R!J2</f>
         <v>590374</v>
       </c>
-      <c r="G12" s="17">
-        <f>G82R!J4*-1</f>
+      <c r="G12" s="16">
+        <f>G82R!J5*-1</f>
         <v>3.0370999999999998E-10</v>
       </c>
       <c r="S12" s="4"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="16">
+      <c r="A13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="15">
         <f>L85P!K2</f>
         <v>613892</v>
       </c>
-      <c r="C13" s="17">
-        <f>L85P!K4*-1</f>
+      <c r="C13" s="16">
+        <f>L85P!K5*-1</f>
         <v>7.7999999999999999E-10</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="E13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="15">
         <f>G82R!K2</f>
         <v>1189386</v>
       </c>
-      <c r="G13" s="17">
-        <f>G82R!K4*-1</f>
+      <c r="G13" s="16">
+        <f>G82R!K5*-1</f>
         <v>1.6714E-9</v>
       </c>
       <c r="S13" s="4"/>
@@ -7759,53 +8106,53 @@
       <c r="AG13" s="8"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="16">
+      <c r="A14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="15">
         <f>L85P!L2</f>
         <v>421837</v>
       </c>
-      <c r="C14" s="17">
-        <f>L85P!L4*-1</f>
+      <c r="C14" s="16">
+        <f>L85P!L5*-1</f>
         <v>1.2E-9</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="16">
+      <c r="E14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="15">
         <f>G82R!L2</f>
         <v>746705</v>
       </c>
-      <c r="G14" s="17">
-        <f>G82R!L4*-1</f>
+      <c r="G14" s="16">
+        <f>G82R!L5*-1</f>
         <v>5.3747000000000001E-10</v>
       </c>
       <c r="S14" s="4"/>
       <c r="AG14" s="8"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="16">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="15">
         <f>L85P!M2</f>
         <v>1574590</v>
       </c>
-      <c r="C15" s="16">
-        <f>L85P!M4*-1</f>
+      <c r="C15" s="15">
+        <f>L85P!M5*-1</f>
         <v>3.9000000000000002E-9</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="16">
+      <c r="E15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="15">
         <f>G82R!M2</f>
         <v>396410</v>
       </c>
-      <c r="G15" s="17">
-        <f>G82R!M4*-1</f>
+      <c r="G15" s="16">
+        <f>G82R!M5*-1</f>
         <v>4.4685000000000001E-10</v>
       </c>
       <c r="R15" s="8"/>
@@ -7813,161 +8160,161 @@
       <c r="AG15" s="8"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="16">
+      <c r="A16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="15">
         <f>L85P!N2</f>
         <v>1065231</v>
       </c>
-      <c r="C16" s="16">
-        <f>L85P!N4*-1</f>
+      <c r="C16" s="15">
+        <f>L85P!N5*-1</f>
         <v>1.9000000000000001E-9</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="16">
+      <c r="E16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="15">
         <f>G82R!N2</f>
         <v>2447200</v>
       </c>
-      <c r="G16" s="17">
-        <f>G82R!N4*-1</f>
+      <c r="G16" s="16">
+        <f>G82R!N5*-1</f>
         <v>2.2848999999999998E-9</v>
       </c>
       <c r="S16" s="4"/>
       <c r="AG16" s="8"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="16">
+      <c r="A17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="15">
         <f>L85P!H2</f>
         <v>537316</v>
       </c>
-      <c r="C17" s="17">
-        <f>L85P!H4*-1</f>
+      <c r="C17" s="16">
+        <f>L85P!H5*-1</f>
         <v>1.9000000000000001E-9</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="16">
+      <c r="E17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="15">
         <f>G82R!O2</f>
         <v>2447200</v>
       </c>
-      <c r="G17" s="16">
-        <f>G82R!O4*-1</f>
+      <c r="G17" s="15">
+        <f>G82R!O5*-1</f>
         <v>2.2848999999999998E-9</v>
       </c>
       <c r="R17" s="8"/>
       <c r="AG17" s="8"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="16">
+      <c r="A18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="15">
         <f>L85P!O2</f>
         <v>1692901</v>
       </c>
-      <c r="C18" s="17">
-        <f>L85P!O4*-1</f>
+      <c r="C18" s="16">
+        <f>L85P!O5*-1</f>
         <v>2.9591999999999999E-9</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="19">
+      <c r="E18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="18">
         <v>0</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <v>3.5800000000000002E-11</v>
       </c>
       <c r="R18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="16">
+      <c r="A19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="15">
         <f>L85P!P2</f>
         <v>709022</v>
       </c>
-      <c r="C19" s="17">
-        <f>L85P!P4*-1</f>
+      <c r="C19" s="16">
+        <f>L85P!P5*-1</f>
         <v>7.6221999999999998E-10</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="19">
+      <c r="E19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="18">
         <v>0</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="18">
         <v>1.2000000000000001E-11</v>
       </c>
       <c r="AG19" s="8"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="16">
+      <c r="A20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="15">
         <v>1040261</v>
       </c>
-      <c r="C20" s="17">
-        <f>L85P!Q4*-1</f>
+      <c r="C20" s="16">
+        <f>L85P!Q5*-1</f>
         <v>2.4010999999999999E-9</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="19">
+      <c r="E20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="18">
         <v>0</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="18">
         <v>1.6500000000000001E-11</v>
       </c>
       <c r="R20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="19">
+      <c r="A21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="18">
         <v>0</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>3.5800000000000002E-11</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="19">
+      <c r="E21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="18">
         <v>0</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <v>2.6899999999999999E-11</v>
       </c>
       <c r="R21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="19">
+      <c r="A22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="18">
         <v>0</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>1.2000000000000001E-11</v>
       </c>
       <c r="D22" s="13"/>
@@ -7983,17 +8330,19 @@
       <c r="AG22" s="8"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="19">
+      <c r="A23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="18">
         <v>0</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>1.6500000000000001E-11</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="P23" s="12"/>
@@ -8005,13 +8354,13 @@
       <c r="AG23" s="8"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="19">
+      <c r="A24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="18">
         <v>0</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>2.6899999999999999E-11</v>
       </c>
       <c r="D24" s="13"/>
@@ -8039,8 +8388,8 @@
       <c r="U25" s="12"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>47</v>
+      <c r="A26" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
